--- a/excel/finished/8高炉/上料日报.xlsx
+++ b/excel/finished/8高炉/上料日报.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="上料日报" sheetId="1" r:id="rId1"/>
     <sheet name="气密箱日报" sheetId="2" r:id="rId2"/>
     <sheet name="上料交班记录表" sheetId="3" r:id="rId3"/>
-    <sheet name="_tag2_day_all" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="_dictionary" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="_tag1_day_all" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="_metadata" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="_tag2_day_all" sheetId="4" r:id="rId4"/>
+    <sheet name="_dictionary" sheetId="5" r:id="rId5"/>
+    <sheet name="_tag1_day_all" sheetId="6" r:id="rId6"/>
+    <sheet name="_metadata" sheetId="7" r:id="rId7"/>
     <sheet name="_anaCharge2_day_hour" sheetId="8" r:id="rId8"/>
     <sheet name="_Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>8高炉上料日报</t>
   </si>
@@ -48,12 +48,12 @@
     <t>烧结矿</t>
   </si>
   <si>
+    <t>块矿</t>
+  </si>
+  <si>
     <t>球矿</t>
   </si>
   <si>
-    <t>块矿</t>
-  </si>
-  <si>
     <t>硅石</t>
   </si>
   <si>
@@ -225,120 +225,6 @@
     <t/>
   </si>
   <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>DateTime1</t>
-  </si>
-  <si>
-    <t>2019年04月11日</t>
-  </si>
-  <si>
-    <t>DateTime2</t>
-  </si>
-  <si>
-    <t>04月11日</t>
-  </si>
-  <si>
-    <t>DateTime3</t>
-  </si>
-  <si>
-    <t>2019/04/11</t>
-  </si>
-  <si>
-    <t>DateTime4</t>
-  </si>
-  <si>
-    <t>04/11</t>
-  </si>
-  <si>
-    <t>DateTime5</t>
-  </si>
-  <si>
-    <t>04月</t>
-  </si>
-  <si>
-    <t>DateTime6</t>
-  </si>
-  <si>
-    <t>2019年04月</t>
-  </si>
-  <si>
-    <t>TemplateName</t>
-  </si>
-  <si>
-    <t>上料日报</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>日报表</t>
-  </si>
-  <si>
-    <t>TemplatePath</t>
-  </si>
-  <si>
-    <t>D:\template\8高炉\上料日报.xlsx</t>
-  </si>
-  <si>
-    <t>AutoBuild</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Build</t>
-  </si>
-  <si>
-    <t>BuildUnit</t>
-  </si>
-  <si>
-    <t>AutoBuildDelay</t>
-  </si>
-  <si>
-    <t>AutoBuildDelayUnit</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>cn_zh</t>
-  </si>
-  <si>
-    <t>BlowingInDate</t>
-  </si>
-  <si>
-    <t>2019-04-11</t>
-  </si>
-  <si>
-    <t>Build_Type</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>Build_StartTime</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:33:40</t>
-  </si>
-  <si>
-    <t>Build_EndTime</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:33:42</t>
-  </si>
-  <si>
-    <t>ExcelFile</t>
-  </si>
-  <si>
-    <t>D:\excel\cn_zh\8高炉\日报表\上料日报_2019-04-11_18.xlsx</t>
-  </si>
-  <si>
-    <t>DateTime7</t>
-  </si>
-  <si>
     <t>COKE/batchMass</t>
   </si>
   <si>
@@ -346,6 +232,9 @@
   </si>
   <si>
     <t>SINTER/batchMass</t>
+  </si>
+  <si>
+    <t>LUMPORE/batchMass</t>
   </si>
   <si>
     <t>PELLETS/batchMass</t>
@@ -365,13 +254,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,31 +302,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="4"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color indexed="65"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -451,40 +326,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,15 +344,29 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,36 +378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -550,10 +386,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -578,188 +452,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -983,17 +857,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,17 +922,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,174 +940,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="25">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,14 +1115,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="distributed"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1696,10 +1570,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1707,19 +1581,19 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.5" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="11.5" style="2"/>
-    <col min="12" max="12" width="12.625" style="2"/>
-    <col min="13" max="13" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="10" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5" customWidth="1"/>
+    <col min="5" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="11.5" style="2"/>
+    <col min="13" max="13" width="12.625" style="2"/>
+    <col min="14" max="14" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="9" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:18">
+    <row r="1" ht="23.25" spans="1:19">
       <c r="A1" s="67"/>
       <c r="B1" s="68" t="s">
         <v>0</v>
@@ -1736,12 +1610,13 @@
       <c r="L1" s="69"/>
       <c r="M1" s="69"/>
       <c r="N1" s="69"/>
-      <c r="O1" s="12"/>
+      <c r="O1" s="69"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
-      <c r="R1" s="67"/>
-    </row>
-    <row r="2" ht="18" spans="1:18">
+      <c r="R1" s="12"/>
+      <c r="S1" s="67"/>
+    </row>
+    <row r="2" ht="18" spans="1:19">
       <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
@@ -1770,1507 +1645,1606 @@
         <v>9</v>
       </c>
       <c r="J2" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="L2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="M2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="N2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="O2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="P2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="Q2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="R2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="S2" s="70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="59">
         <v>0.0416666666666667</v>
       </c>
       <c r="B3" s="3">
-        <f>IF(_Sheet1!A1="",_Sheet1!$J$1,_Sheet1!A1)</f>
+        <f>IF(_Sheet1!A1="",_Sheet1!$K$1,_Sheet1!A1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="60">
-        <f>IF(_Sheet1!B1="",_Sheet1!$J$1,_Sheet1!B1)</f>
+        <f>IF(_Sheet1!B1="",_Sheet1!$K$1,_Sheet1!B1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="60">
-        <f>IF(_Sheet1!C1="",_Sheet1!$J$1,_Sheet1!C1)</f>
+        <f>IF(_Sheet1!C1="",_Sheet1!$K$1,_Sheet1!C1)</f>
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <f>IF(_Sheet1!B1="",_Sheet1!$J$1,_Sheet1!B1)</f>
+        <f>IF(_Sheet1!B1="",_Sheet1!$K$1,_Sheet1!B1)</f>
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <f>IF(_Sheet1!C1="",_Sheet1!$J$1,_Sheet1!C1)</f>
+        <f>IF(_Sheet1!C1="",_Sheet1!$K$1,_Sheet1!C1)</f>
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <f>IF(_Sheet1!D1="",_Sheet1!$J$1,_Sheet1!D1)</f>
+        <f>IF(_Sheet1!D1="",_Sheet1!$K$1,_Sheet1!D1)</f>
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <f>IF(_Sheet1!E1="",_Sheet1!$J$1,_Sheet1!E1)</f>
+        <f>IF(_Sheet1!E1="",_Sheet1!$K$1,_Sheet1!E1)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <f>IF(_Sheet1!H1="",_Sheet1!$J$1,_Sheet1!H1)</f>
+        <f>IF(_Sheet1!F1="",_Sheet1!$K$1,_Sheet1!F1)</f>
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f>IF(_Sheet1!F1="",_Sheet1!$J$1,_Sheet1!F1)</f>
+        <f>IF(_Sheet1!I1="",_Sheet1!$K$1,_Sheet1!I1)</f>
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>IF(_Sheet1!G1="",_Sheet1!$J$1,_Sheet1!G1)</f>
+        <f>IF(_Sheet1!G1="",_Sheet1!$K$1,_Sheet1!G1)</f>
         <v>0</v>
       </c>
       <c r="L3" s="4">
-        <f>IF(_Sheet1!H1="",_Sheet1!$J$1,_Sheet1!H1)</f>
+        <f>IF(_Sheet1!H1="",_Sheet1!$K$1,_Sheet1!H1)</f>
         <v>0</v>
       </c>
       <c r="M3" s="4">
-        <f>IF(_Sheet1!L1="",_Sheet1!$J$1,_Sheet1!L1)</f>
+        <f>IF(_Sheet1!I1="",_Sheet1!$K$1,_Sheet1!I1)</f>
         <v>0</v>
       </c>
       <c r="N3" s="4">
-        <f>IF(_Sheet1!I1="",_Sheet1!$J$1,_Sheet1!I1)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="66"/>
+        <f>IF(_Sheet1!M1="",_Sheet1!$K$1,_Sheet1!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <f>IF(_Sheet1!J1="",_Sheet1!$K$1,_Sheet1!J1)</f>
+        <v>0</v>
+      </c>
       <c r="P3" s="66"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="Q3" s="66"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="75"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="59">
         <v>0.0833333333333333</v>
       </c>
       <c r="B4" s="3">
-        <f>IF(_Sheet1!A2="",_Sheet1!$J$1,_Sheet1!A2)</f>
+        <f>IF(_Sheet1!A2="",_Sheet1!$K$1,_Sheet1!A2)</f>
         <v>0</v>
       </c>
       <c r="C4" s="60">
-        <f>IF(_Sheet1!B2="",_Sheet1!$J$1,_Sheet1!B2)</f>
+        <f>IF(_Sheet1!B2="",_Sheet1!$K$1,_Sheet1!B2)</f>
         <v>0</v>
       </c>
       <c r="D4" s="60">
-        <f>IF(_Sheet1!C2="",_Sheet1!$J$1,_Sheet1!C2)</f>
+        <f>IF(_Sheet1!C2="",_Sheet1!$K$1,_Sheet1!C2)</f>
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <f>IF(_Sheet1!B2="",_Sheet1!$J$1,_Sheet1!B2)</f>
+        <f>IF(_Sheet1!B2="",_Sheet1!$K$1,_Sheet1!B2)</f>
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <f>IF(_Sheet1!C2="",_Sheet1!$J$1,_Sheet1!C2)</f>
+        <f>IF(_Sheet1!C2="",_Sheet1!$K$1,_Sheet1!C2)</f>
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <f>IF(_Sheet1!D2="",_Sheet1!$J$1,_Sheet1!D2)</f>
+        <f>IF(_Sheet1!D2="",_Sheet1!$K$1,_Sheet1!D2)</f>
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>IF(_Sheet1!E2="",_Sheet1!$J$1,_Sheet1!E2)</f>
+        <f>IF(_Sheet1!E2="",_Sheet1!$K$1,_Sheet1!E2)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f>IF(_Sheet1!H2="",_Sheet1!$J$1,_Sheet1!H2)</f>
+        <f>IF(_Sheet1!F2="",_Sheet1!$K$1,_Sheet1!F2)</f>
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <f>IF(_Sheet1!F2="",_Sheet1!$J$1,_Sheet1!F2)</f>
+        <f>IF(_Sheet1!I2="",_Sheet1!$K$1,_Sheet1!I2)</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f>IF(_Sheet1!G2="",_Sheet1!$J$1,_Sheet1!G2)</f>
+        <f>IF(_Sheet1!G2="",_Sheet1!$K$1,_Sheet1!G2)</f>
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f>IF(_Sheet1!H2="",_Sheet1!$J$1,_Sheet1!H2)</f>
+        <f>IF(_Sheet1!H2="",_Sheet1!$K$1,_Sheet1!H2)</f>
         <v>0</v>
       </c>
       <c r="M4" s="4">
-        <f>IF(_Sheet1!L2="",_Sheet1!$J$1,_Sheet1!L2)</f>
+        <f>IF(_Sheet1!I2="",_Sheet1!$K$1,_Sheet1!I2)</f>
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <f>IF(_Sheet1!I2="",_Sheet1!$J$1,_Sheet1!I2)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="66"/>
+        <f>IF(_Sheet1!M2="",_Sheet1!$K$1,_Sheet1!M2)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>IF(_Sheet1!J2="",_Sheet1!$K$1,_Sheet1!J2)</f>
+        <v>0</v>
+      </c>
       <c r="P4" s="66"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="76"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="Q4" s="66"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="76"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="59">
         <v>0.125</v>
       </c>
       <c r="B5" s="3">
-        <f>IF(_Sheet1!A3="",_Sheet1!$J$1,_Sheet1!A3)</f>
+        <f>IF(_Sheet1!A3="",_Sheet1!$K$1,_Sheet1!A3)</f>
         <v>0</v>
       </c>
       <c r="C5" s="60">
-        <f>IF(_Sheet1!B3="",_Sheet1!$J$1,_Sheet1!B3)</f>
+        <f>IF(_Sheet1!B3="",_Sheet1!$K$1,_Sheet1!B3)</f>
         <v>0</v>
       </c>
       <c r="D5" s="60">
-        <f>IF(_Sheet1!C3="",_Sheet1!$J$1,_Sheet1!C3)</f>
+        <f>IF(_Sheet1!C3="",_Sheet1!$K$1,_Sheet1!C3)</f>
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <f>IF(_Sheet1!B3="",_Sheet1!$J$1,_Sheet1!B3)</f>
+        <f>IF(_Sheet1!B3="",_Sheet1!$K$1,_Sheet1!B3)</f>
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <f>IF(_Sheet1!C3="",_Sheet1!$J$1,_Sheet1!C3)</f>
+        <f>IF(_Sheet1!C3="",_Sheet1!$K$1,_Sheet1!C3)</f>
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <f>IF(_Sheet1!D3="",_Sheet1!$J$1,_Sheet1!D3)</f>
+        <f>IF(_Sheet1!D3="",_Sheet1!$K$1,_Sheet1!D3)</f>
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>IF(_Sheet1!E3="",_Sheet1!$J$1,_Sheet1!E3)</f>
+        <f>IF(_Sheet1!E3="",_Sheet1!$K$1,_Sheet1!E3)</f>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f>IF(_Sheet1!H3="",_Sheet1!$J$1,_Sheet1!H3)</f>
+        <f>IF(_Sheet1!F3="",_Sheet1!$K$1,_Sheet1!F3)</f>
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <f>IF(_Sheet1!F3="",_Sheet1!$J$1,_Sheet1!F3)</f>
+        <f>IF(_Sheet1!I3="",_Sheet1!$K$1,_Sheet1!I3)</f>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>IF(_Sheet1!G3="",_Sheet1!$J$1,_Sheet1!G3)</f>
+        <f>IF(_Sheet1!G3="",_Sheet1!$K$1,_Sheet1!G3)</f>
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>IF(_Sheet1!H3="",_Sheet1!$J$1,_Sheet1!H3)</f>
+        <f>IF(_Sheet1!H3="",_Sheet1!$K$1,_Sheet1!H3)</f>
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>IF(_Sheet1!L3="",_Sheet1!$J$1,_Sheet1!L3)</f>
+        <f>IF(_Sheet1!I3="",_Sheet1!$K$1,_Sheet1!I3)</f>
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>IF(_Sheet1!I3="",_Sheet1!$J$1,_Sheet1!I3)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="66"/>
+        <f>IF(_Sheet1!M3="",_Sheet1!$K$1,_Sheet1!M3)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f>IF(_Sheet1!J3="",_Sheet1!$K$1,_Sheet1!J3)</f>
+        <v>0</v>
+      </c>
       <c r="P5" s="66"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="76"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="Q5" s="66"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="76"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="59">
         <v>0.166666666666667</v>
       </c>
       <c r="B6" s="3">
-        <f>IF(_Sheet1!A4="",_Sheet1!$J$1,_Sheet1!A4)</f>
+        <f>IF(_Sheet1!A4="",_Sheet1!$K$1,_Sheet1!A4)</f>
         <v>0</v>
       </c>
       <c r="C6" s="60">
-        <f>IF(_Sheet1!B4="",_Sheet1!$J$1,_Sheet1!B4)</f>
+        <f>IF(_Sheet1!B4="",_Sheet1!$K$1,_Sheet1!B4)</f>
         <v>0</v>
       </c>
       <c r="D6" s="60">
-        <f>IF(_Sheet1!C4="",_Sheet1!$J$1,_Sheet1!C4)</f>
+        <f>IF(_Sheet1!C4="",_Sheet1!$K$1,_Sheet1!C4)</f>
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <f>IF(_Sheet1!B4="",_Sheet1!$J$1,_Sheet1!B4)</f>
+        <f>IF(_Sheet1!B4="",_Sheet1!$K$1,_Sheet1!B4)</f>
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <f>IF(_Sheet1!C4="",_Sheet1!$J$1,_Sheet1!C4)</f>
+        <f>IF(_Sheet1!C4="",_Sheet1!$K$1,_Sheet1!C4)</f>
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <f>IF(_Sheet1!D4="",_Sheet1!$J$1,_Sheet1!D4)</f>
+        <f>IF(_Sheet1!D4="",_Sheet1!$K$1,_Sheet1!D4)</f>
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>IF(_Sheet1!E4="",_Sheet1!$J$1,_Sheet1!E4)</f>
+        <f>IF(_Sheet1!E4="",_Sheet1!$K$1,_Sheet1!E4)</f>
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f>IF(_Sheet1!H4="",_Sheet1!$J$1,_Sheet1!H4)</f>
+        <f>IF(_Sheet1!F4="",_Sheet1!$K$1,_Sheet1!F4)</f>
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <f>IF(_Sheet1!F4="",_Sheet1!$J$1,_Sheet1!F4)</f>
+        <f>IF(_Sheet1!I4="",_Sheet1!$K$1,_Sheet1!I4)</f>
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f>IF(_Sheet1!G4="",_Sheet1!$J$1,_Sheet1!G4)</f>
+        <f>IF(_Sheet1!G4="",_Sheet1!$K$1,_Sheet1!G4)</f>
         <v>0</v>
       </c>
       <c r="L6" s="4">
-        <f>IF(_Sheet1!H4="",_Sheet1!$J$1,_Sheet1!H4)</f>
+        <f>IF(_Sheet1!H4="",_Sheet1!$K$1,_Sheet1!H4)</f>
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <f>IF(_Sheet1!L4="",_Sheet1!$J$1,_Sheet1!L4)</f>
+        <f>IF(_Sheet1!I4="",_Sheet1!$K$1,_Sheet1!I4)</f>
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <f>IF(_Sheet1!I4="",_Sheet1!$J$1,_Sheet1!I4)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="66"/>
+        <f>IF(_Sheet1!M4="",_Sheet1!$K$1,_Sheet1!M4)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <f>IF(_Sheet1!J4="",_Sheet1!$K$1,_Sheet1!J4)</f>
+        <v>0</v>
+      </c>
       <c r="P6" s="66"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="76"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="Q6" s="66"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="76"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="59">
         <v>0.208333333333334</v>
       </c>
       <c r="B7" s="3">
-        <f>IF(_Sheet1!A5="",_Sheet1!$J$1,_Sheet1!A5)</f>
+        <f>IF(_Sheet1!A5="",_Sheet1!$K$1,_Sheet1!A5)</f>
         <v>0</v>
       </c>
       <c r="C7" s="60">
-        <f>IF(_Sheet1!B5="",_Sheet1!$J$1,_Sheet1!B5)</f>
+        <f>IF(_Sheet1!B5="",_Sheet1!$K$1,_Sheet1!B5)</f>
         <v>0</v>
       </c>
       <c r="D7" s="60">
-        <f>IF(_Sheet1!C5="",_Sheet1!$J$1,_Sheet1!C5)</f>
+        <f>IF(_Sheet1!C5="",_Sheet1!$K$1,_Sheet1!C5)</f>
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <f>IF(_Sheet1!B5="",_Sheet1!$J$1,_Sheet1!B5)</f>
+        <f>IF(_Sheet1!B5="",_Sheet1!$K$1,_Sheet1!B5)</f>
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <f>IF(_Sheet1!C5="",_Sheet1!$J$1,_Sheet1!C5)</f>
+        <f>IF(_Sheet1!C5="",_Sheet1!$K$1,_Sheet1!C5)</f>
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f>IF(_Sheet1!D5="",_Sheet1!$J$1,_Sheet1!D5)</f>
+        <f>IF(_Sheet1!D5="",_Sheet1!$K$1,_Sheet1!D5)</f>
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>IF(_Sheet1!E5="",_Sheet1!$J$1,_Sheet1!E5)</f>
+        <f>IF(_Sheet1!E5="",_Sheet1!$K$1,_Sheet1!E5)</f>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f>IF(_Sheet1!H5="",_Sheet1!$J$1,_Sheet1!H5)</f>
+        <f>IF(_Sheet1!F5="",_Sheet1!$K$1,_Sheet1!F5)</f>
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f>IF(_Sheet1!F5="",_Sheet1!$J$1,_Sheet1!F5)</f>
+        <f>IF(_Sheet1!I5="",_Sheet1!$K$1,_Sheet1!I5)</f>
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f>IF(_Sheet1!G5="",_Sheet1!$J$1,_Sheet1!G5)</f>
+        <f>IF(_Sheet1!G5="",_Sheet1!$K$1,_Sheet1!G5)</f>
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <f>IF(_Sheet1!H5="",_Sheet1!$J$1,_Sheet1!H5)</f>
+        <f>IF(_Sheet1!H5="",_Sheet1!$K$1,_Sheet1!H5)</f>
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <f>IF(_Sheet1!L5="",_Sheet1!$J$1,_Sheet1!L5)</f>
+        <f>IF(_Sheet1!I5="",_Sheet1!$K$1,_Sheet1!I5)</f>
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <f>IF(_Sheet1!I5="",_Sheet1!$J$1,_Sheet1!I5)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="66"/>
+        <f>IF(_Sheet1!M5="",_Sheet1!$K$1,_Sheet1!M5)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <f>IF(_Sheet1!J5="",_Sheet1!$K$1,_Sheet1!J5)</f>
+        <v>0</v>
+      </c>
       <c r="P7" s="66"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="76"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="Q7" s="66"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="76"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="59">
         <v>0.25</v>
       </c>
       <c r="B8" s="3">
-        <f>IF(_Sheet1!A6="",_Sheet1!$J$1,_Sheet1!A6)</f>
+        <f>IF(_Sheet1!A6="",_Sheet1!$K$1,_Sheet1!A6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="60">
-        <f>IF(_Sheet1!B6="",_Sheet1!$J$1,_Sheet1!B6)</f>
+        <f>IF(_Sheet1!B6="",_Sheet1!$K$1,_Sheet1!B6)</f>
         <v>0</v>
       </c>
       <c r="D8" s="60">
-        <f>IF(_Sheet1!C6="",_Sheet1!$J$1,_Sheet1!C6)</f>
+        <f>IF(_Sheet1!C6="",_Sheet1!$K$1,_Sheet1!C6)</f>
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <f>IF(_Sheet1!B6="",_Sheet1!$J$1,_Sheet1!B6)</f>
+        <f>IF(_Sheet1!B6="",_Sheet1!$K$1,_Sheet1!B6)</f>
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <f>IF(_Sheet1!C6="",_Sheet1!$J$1,_Sheet1!C6)</f>
+        <f>IF(_Sheet1!C6="",_Sheet1!$K$1,_Sheet1!C6)</f>
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <f>IF(_Sheet1!D6="",_Sheet1!$J$1,_Sheet1!D6)</f>
+        <f>IF(_Sheet1!D6="",_Sheet1!$K$1,_Sheet1!D6)</f>
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>IF(_Sheet1!E6="",_Sheet1!$J$1,_Sheet1!E6)</f>
+        <f>IF(_Sheet1!E6="",_Sheet1!$K$1,_Sheet1!E6)</f>
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f>IF(_Sheet1!H6="",_Sheet1!$J$1,_Sheet1!H6)</f>
+        <f>IF(_Sheet1!F6="",_Sheet1!$K$1,_Sheet1!F6)</f>
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f>IF(_Sheet1!F6="",_Sheet1!$J$1,_Sheet1!F6)</f>
+        <f>IF(_Sheet1!I6="",_Sheet1!$K$1,_Sheet1!I6)</f>
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f>IF(_Sheet1!G6="",_Sheet1!$J$1,_Sheet1!G6)</f>
+        <f>IF(_Sheet1!G6="",_Sheet1!$K$1,_Sheet1!G6)</f>
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <f>IF(_Sheet1!H6="",_Sheet1!$J$1,_Sheet1!H6)</f>
+        <f>IF(_Sheet1!H6="",_Sheet1!$K$1,_Sheet1!H6)</f>
         <v>0</v>
       </c>
       <c r="M8" s="4">
-        <f>IF(_Sheet1!L6="",_Sheet1!$J$1,_Sheet1!L6)</f>
+        <f>IF(_Sheet1!I6="",_Sheet1!$K$1,_Sheet1!I6)</f>
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <f>IF(_Sheet1!I6="",_Sheet1!$J$1,_Sheet1!I6)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="66"/>
+        <f>IF(_Sheet1!M6="",_Sheet1!$K$1,_Sheet1!M6)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <f>IF(_Sheet1!J6="",_Sheet1!$K$1,_Sheet1!J6)</f>
+        <v>0</v>
+      </c>
       <c r="P8" s="66"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="76"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="Q8" s="66"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="76"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="59">
         <v>0.291666666666667</v>
       </c>
       <c r="B9" s="3">
-        <f>IF(_Sheet1!A7="",_Sheet1!$J$1,_Sheet1!A7)</f>
+        <f>IF(_Sheet1!A7="",_Sheet1!$K$1,_Sheet1!A7)</f>
         <v>0</v>
       </c>
       <c r="C9" s="60">
-        <f>IF(_Sheet1!B7="",_Sheet1!$J$1,_Sheet1!B7)</f>
+        <f>IF(_Sheet1!B7="",_Sheet1!$K$1,_Sheet1!B7)</f>
         <v>0</v>
       </c>
       <c r="D9" s="60">
-        <f>IF(_Sheet1!C7="",_Sheet1!$J$1,_Sheet1!C7)</f>
+        <f>IF(_Sheet1!C7="",_Sheet1!$K$1,_Sheet1!C7)</f>
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <f>IF(_Sheet1!B7="",_Sheet1!$J$1,_Sheet1!B7)</f>
+        <f>IF(_Sheet1!B7="",_Sheet1!$K$1,_Sheet1!B7)</f>
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <f>IF(_Sheet1!C7="",_Sheet1!$J$1,_Sheet1!C7)</f>
+        <f>IF(_Sheet1!C7="",_Sheet1!$K$1,_Sheet1!C7)</f>
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <f>IF(_Sheet1!D7="",_Sheet1!$J$1,_Sheet1!D7)</f>
+        <f>IF(_Sheet1!D7="",_Sheet1!$K$1,_Sheet1!D7)</f>
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>IF(_Sheet1!E7="",_Sheet1!$J$1,_Sheet1!E7)</f>
+        <f>IF(_Sheet1!E7="",_Sheet1!$K$1,_Sheet1!E7)</f>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f>IF(_Sheet1!H7="",_Sheet1!$J$1,_Sheet1!H7)</f>
+        <f>IF(_Sheet1!F7="",_Sheet1!$K$1,_Sheet1!F7)</f>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f>IF(_Sheet1!F7="",_Sheet1!$J$1,_Sheet1!F7)</f>
+        <f>IF(_Sheet1!I7="",_Sheet1!$K$1,_Sheet1!I7)</f>
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f>IF(_Sheet1!G7="",_Sheet1!$J$1,_Sheet1!G7)</f>
+        <f>IF(_Sheet1!G7="",_Sheet1!$K$1,_Sheet1!G7)</f>
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <f>IF(_Sheet1!H7="",_Sheet1!$J$1,_Sheet1!H7)</f>
+        <f>IF(_Sheet1!H7="",_Sheet1!$K$1,_Sheet1!H7)</f>
         <v>0</v>
       </c>
       <c r="M9" s="4">
-        <f>IF(_Sheet1!L7="",_Sheet1!$J$1,_Sheet1!L7)</f>
+        <f>IF(_Sheet1!I7="",_Sheet1!$K$1,_Sheet1!I7)</f>
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <f>IF(_Sheet1!I7="",_Sheet1!$J$1,_Sheet1!I7)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="66"/>
+        <f>IF(_Sheet1!M7="",_Sheet1!$K$1,_Sheet1!M7)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <f>IF(_Sheet1!J7="",_Sheet1!$K$1,_Sheet1!J7)</f>
+        <v>0</v>
+      </c>
       <c r="P9" s="66"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="76"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="Q9" s="66"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="76"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="59">
         <v>0.333333333333334</v>
       </c>
       <c r="B10" s="3">
-        <f>IF(_Sheet1!A8="",_Sheet1!$J$1,_Sheet1!A8)</f>
+        <f>IF(_Sheet1!A8="",_Sheet1!$K$1,_Sheet1!A8)</f>
         <v>0</v>
       </c>
       <c r="C10" s="60">
-        <f>IF(_Sheet1!B8="",_Sheet1!$J$1,_Sheet1!B8)</f>
+        <f>IF(_Sheet1!B8="",_Sheet1!$K$1,_Sheet1!B8)</f>
         <v>0</v>
       </c>
       <c r="D10" s="60">
-        <f>IF(_Sheet1!C8="",_Sheet1!$J$1,_Sheet1!C8)</f>
+        <f>IF(_Sheet1!C8="",_Sheet1!$K$1,_Sheet1!C8)</f>
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <f>IF(_Sheet1!B8="",_Sheet1!$J$1,_Sheet1!B8)</f>
+        <f>IF(_Sheet1!B8="",_Sheet1!$K$1,_Sheet1!B8)</f>
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <f>IF(_Sheet1!C8="",_Sheet1!$J$1,_Sheet1!C8)</f>
+        <f>IF(_Sheet1!C8="",_Sheet1!$K$1,_Sheet1!C8)</f>
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <f>IF(_Sheet1!D8="",_Sheet1!$J$1,_Sheet1!D8)</f>
+        <f>IF(_Sheet1!D8="",_Sheet1!$K$1,_Sheet1!D8)</f>
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>IF(_Sheet1!E8="",_Sheet1!$J$1,_Sheet1!E8)</f>
+        <f>IF(_Sheet1!E8="",_Sheet1!$K$1,_Sheet1!E8)</f>
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f>IF(_Sheet1!H8="",_Sheet1!$J$1,_Sheet1!H8)</f>
+        <f>IF(_Sheet1!F8="",_Sheet1!$K$1,_Sheet1!F8)</f>
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <f>IF(_Sheet1!F8="",_Sheet1!$J$1,_Sheet1!F8)</f>
+        <f>IF(_Sheet1!I8="",_Sheet1!$K$1,_Sheet1!I8)</f>
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <f>IF(_Sheet1!G8="",_Sheet1!$J$1,_Sheet1!G8)</f>
+        <f>IF(_Sheet1!G8="",_Sheet1!$K$1,_Sheet1!G8)</f>
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <f>IF(_Sheet1!H8="",_Sheet1!$J$1,_Sheet1!H8)</f>
+        <f>IF(_Sheet1!H8="",_Sheet1!$K$1,_Sheet1!H8)</f>
         <v>0</v>
       </c>
       <c r="M10" s="4">
-        <f>IF(_Sheet1!L8="",_Sheet1!$J$1,_Sheet1!L8)</f>
+        <f>IF(_Sheet1!I8="",_Sheet1!$K$1,_Sheet1!I8)</f>
         <v>0</v>
       </c>
       <c r="N10" s="4">
-        <f>IF(_Sheet1!I8="",_Sheet1!$J$1,_Sheet1!I8)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="66"/>
+        <f>IF(_Sheet1!M8="",_Sheet1!$K$1,_Sheet1!M8)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <f>IF(_Sheet1!J8="",_Sheet1!$K$1,_Sheet1!J8)</f>
+        <v>0</v>
+      </c>
       <c r="P10" s="66"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="76"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="Q10" s="66"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="76"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="59">
         <v>0.375</v>
       </c>
       <c r="B11" s="3">
-        <f>IF(_Sheet1!A9="",_Sheet1!$J$1,_Sheet1!A9)</f>
+        <f>IF(_Sheet1!A9="",_Sheet1!$K$1,_Sheet1!A9)</f>
         <v>0</v>
       </c>
       <c r="C11" s="60">
-        <f>IF(_Sheet1!B9="",_Sheet1!$J$1,_Sheet1!B9)</f>
+        <f>IF(_Sheet1!B9="",_Sheet1!$K$1,_Sheet1!B9)</f>
         <v>0</v>
       </c>
       <c r="D11" s="60">
-        <f>IF(_Sheet1!C9="",_Sheet1!$J$1,_Sheet1!C9)</f>
+        <f>IF(_Sheet1!C9="",_Sheet1!$K$1,_Sheet1!C9)</f>
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <f>IF(_Sheet1!B9="",_Sheet1!$J$1,_Sheet1!B9)</f>
+        <f>IF(_Sheet1!B9="",_Sheet1!$K$1,_Sheet1!B9)</f>
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <f>IF(_Sheet1!C9="",_Sheet1!$J$1,_Sheet1!C9)</f>
+        <f>IF(_Sheet1!C9="",_Sheet1!$K$1,_Sheet1!C9)</f>
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <f>IF(_Sheet1!D9="",_Sheet1!$J$1,_Sheet1!D9)</f>
+        <f>IF(_Sheet1!D9="",_Sheet1!$K$1,_Sheet1!D9)</f>
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f>IF(_Sheet1!E9="",_Sheet1!$J$1,_Sheet1!E9)</f>
+        <f>IF(_Sheet1!E9="",_Sheet1!$K$1,_Sheet1!E9)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f>IF(_Sheet1!H9="",_Sheet1!$J$1,_Sheet1!H9)</f>
+        <f>IF(_Sheet1!F9="",_Sheet1!$K$1,_Sheet1!F9)</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f>IF(_Sheet1!F9="",_Sheet1!$J$1,_Sheet1!F9)</f>
+        <f>IF(_Sheet1!I9="",_Sheet1!$K$1,_Sheet1!I9)</f>
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f>IF(_Sheet1!G9="",_Sheet1!$J$1,_Sheet1!G9)</f>
+        <f>IF(_Sheet1!G9="",_Sheet1!$K$1,_Sheet1!G9)</f>
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <f>IF(_Sheet1!H9="",_Sheet1!$J$1,_Sheet1!H9)</f>
+        <f>IF(_Sheet1!H9="",_Sheet1!$K$1,_Sheet1!H9)</f>
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <f>IF(_Sheet1!L9="",_Sheet1!$J$1,_Sheet1!L9)</f>
+        <f>IF(_Sheet1!I9="",_Sheet1!$K$1,_Sheet1!I9)</f>
         <v>0</v>
       </c>
       <c r="N11" s="4">
-        <f>IF(_Sheet1!I9="",_Sheet1!$J$1,_Sheet1!I9)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="66"/>
+        <f>IF(_Sheet1!M9="",_Sheet1!$K$1,_Sheet1!M9)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f>IF(_Sheet1!J9="",_Sheet1!$K$1,_Sheet1!J9)</f>
+        <v>0</v>
+      </c>
       <c r="P11" s="66"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="76"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="Q11" s="66"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="76"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="59">
         <v>0.416666666666667</v>
       </c>
       <c r="B12" s="3">
-        <f>IF(_Sheet1!A10="",_Sheet1!$J$1,_Sheet1!A10)</f>
+        <f>IF(_Sheet1!A10="",_Sheet1!$K$1,_Sheet1!A10)</f>
         <v>0</v>
       </c>
       <c r="C12" s="60">
-        <f>IF(_Sheet1!B10="",_Sheet1!$J$1,_Sheet1!B10)</f>
+        <f>IF(_Sheet1!B10="",_Sheet1!$K$1,_Sheet1!B10)</f>
         <v>0</v>
       </c>
       <c r="D12" s="60">
-        <f>IF(_Sheet1!C10="",_Sheet1!$J$1,_Sheet1!C10)</f>
+        <f>IF(_Sheet1!C10="",_Sheet1!$K$1,_Sheet1!C10)</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <f>IF(_Sheet1!B10="",_Sheet1!$J$1,_Sheet1!B10)</f>
+        <f>IF(_Sheet1!B10="",_Sheet1!$K$1,_Sheet1!B10)</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <f>IF(_Sheet1!C10="",_Sheet1!$J$1,_Sheet1!C10)</f>
+        <f>IF(_Sheet1!C10="",_Sheet1!$K$1,_Sheet1!C10)</f>
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <f>IF(_Sheet1!D10="",_Sheet1!$J$1,_Sheet1!D10)</f>
+        <f>IF(_Sheet1!D10="",_Sheet1!$K$1,_Sheet1!D10)</f>
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>IF(_Sheet1!E10="",_Sheet1!$J$1,_Sheet1!E10)</f>
+        <f>IF(_Sheet1!E10="",_Sheet1!$K$1,_Sheet1!E10)</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f>IF(_Sheet1!H10="",_Sheet1!$J$1,_Sheet1!H10)</f>
+        <f>IF(_Sheet1!F10="",_Sheet1!$K$1,_Sheet1!F10)</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f>IF(_Sheet1!F10="",_Sheet1!$J$1,_Sheet1!F10)</f>
+        <f>IF(_Sheet1!I10="",_Sheet1!$K$1,_Sheet1!I10)</f>
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <f>IF(_Sheet1!G10="",_Sheet1!$J$1,_Sheet1!G10)</f>
+        <f>IF(_Sheet1!G10="",_Sheet1!$K$1,_Sheet1!G10)</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <f>IF(_Sheet1!H10="",_Sheet1!$J$1,_Sheet1!H10)</f>
+        <f>IF(_Sheet1!H10="",_Sheet1!$K$1,_Sheet1!H10)</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <f>IF(_Sheet1!L10="",_Sheet1!$J$1,_Sheet1!L10)</f>
+        <f>IF(_Sheet1!I10="",_Sheet1!$K$1,_Sheet1!I10)</f>
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <f>IF(_Sheet1!I10="",_Sheet1!$J$1,_Sheet1!I10)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="66"/>
+        <f>IF(_Sheet1!M10="",_Sheet1!$K$1,_Sheet1!M10)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>IF(_Sheet1!J10="",_Sheet1!$K$1,_Sheet1!J10)</f>
+        <v>0</v>
+      </c>
       <c r="P12" s="66"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="76"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="Q12" s="66"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="76"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="59">
         <v>0.458333333333334</v>
       </c>
       <c r="B13" s="3">
-        <f>IF(_Sheet1!A11="",_Sheet1!$J$1,_Sheet1!A11)</f>
+        <f>IF(_Sheet1!A11="",_Sheet1!$K$1,_Sheet1!A11)</f>
         <v>0</v>
       </c>
       <c r="C13" s="60">
-        <f>IF(_Sheet1!B11="",_Sheet1!$J$1,_Sheet1!B11)</f>
+        <f>IF(_Sheet1!B11="",_Sheet1!$K$1,_Sheet1!B11)</f>
         <v>0</v>
       </c>
       <c r="D13" s="60">
-        <f>IF(_Sheet1!C11="",_Sheet1!$J$1,_Sheet1!C11)</f>
+        <f>IF(_Sheet1!C11="",_Sheet1!$K$1,_Sheet1!C11)</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f>IF(_Sheet1!B11="",_Sheet1!$J$1,_Sheet1!B11)</f>
+        <f>IF(_Sheet1!B11="",_Sheet1!$K$1,_Sheet1!B11)</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f>IF(_Sheet1!C11="",_Sheet1!$J$1,_Sheet1!C11)</f>
+        <f>IF(_Sheet1!C11="",_Sheet1!$K$1,_Sheet1!C11)</f>
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f>IF(_Sheet1!D11="",_Sheet1!$J$1,_Sheet1!D11)</f>
+        <f>IF(_Sheet1!D11="",_Sheet1!$K$1,_Sheet1!D11)</f>
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>IF(_Sheet1!E11="",_Sheet1!$J$1,_Sheet1!E11)</f>
+        <f>IF(_Sheet1!E11="",_Sheet1!$K$1,_Sheet1!E11)</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f>IF(_Sheet1!H11="",_Sheet1!$J$1,_Sheet1!H11)</f>
+        <f>IF(_Sheet1!F11="",_Sheet1!$K$1,_Sheet1!F11)</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f>IF(_Sheet1!F11="",_Sheet1!$J$1,_Sheet1!F11)</f>
+        <f>IF(_Sheet1!I11="",_Sheet1!$K$1,_Sheet1!I11)</f>
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <f>IF(_Sheet1!G11="",_Sheet1!$J$1,_Sheet1!G11)</f>
+        <f>IF(_Sheet1!G11="",_Sheet1!$K$1,_Sheet1!G11)</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <f>IF(_Sheet1!H11="",_Sheet1!$J$1,_Sheet1!H11)</f>
+        <f>IF(_Sheet1!H11="",_Sheet1!$K$1,_Sheet1!H11)</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
-        <f>IF(_Sheet1!L11="",_Sheet1!$J$1,_Sheet1!L11)</f>
+        <f>IF(_Sheet1!I11="",_Sheet1!$K$1,_Sheet1!I11)</f>
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <f>IF(_Sheet1!I11="",_Sheet1!$J$1,_Sheet1!I11)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="66"/>
+        <f>IF(_Sheet1!M11="",_Sheet1!$K$1,_Sheet1!M11)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <f>IF(_Sheet1!J11="",_Sheet1!$K$1,_Sheet1!J11)</f>
+        <v>0</v>
+      </c>
       <c r="P13" s="66"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="76"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="Q13" s="66"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="76"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="59">
         <v>0.5</v>
       </c>
       <c r="B14" s="3">
-        <f>IF(_Sheet1!A12="",_Sheet1!$J$1,_Sheet1!A12)</f>
+        <f>IF(_Sheet1!A12="",_Sheet1!$K$1,_Sheet1!A12)</f>
         <v>0</v>
       </c>
       <c r="C14" s="60">
-        <f>IF(_Sheet1!B12="",_Sheet1!$J$1,_Sheet1!B12)</f>
+        <f>IF(_Sheet1!B12="",_Sheet1!$K$1,_Sheet1!B12)</f>
         <v>0</v>
       </c>
       <c r="D14" s="60">
-        <f>IF(_Sheet1!C12="",_Sheet1!$J$1,_Sheet1!C12)</f>
+        <f>IF(_Sheet1!C12="",_Sheet1!$K$1,_Sheet1!C12)</f>
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <f>IF(_Sheet1!B12="",_Sheet1!$J$1,_Sheet1!B12)</f>
+        <f>IF(_Sheet1!B12="",_Sheet1!$K$1,_Sheet1!B12)</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <f>IF(_Sheet1!C12="",_Sheet1!$J$1,_Sheet1!C12)</f>
+        <f>IF(_Sheet1!C12="",_Sheet1!$K$1,_Sheet1!C12)</f>
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <f>IF(_Sheet1!D12="",_Sheet1!$J$1,_Sheet1!D12)</f>
+        <f>IF(_Sheet1!D12="",_Sheet1!$K$1,_Sheet1!D12)</f>
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>IF(_Sheet1!E12="",_Sheet1!$J$1,_Sheet1!E12)</f>
+        <f>IF(_Sheet1!E12="",_Sheet1!$K$1,_Sheet1!E12)</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f>IF(_Sheet1!H12="",_Sheet1!$J$1,_Sheet1!H12)</f>
+        <f>IF(_Sheet1!F12="",_Sheet1!$K$1,_Sheet1!F12)</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <f>IF(_Sheet1!F12="",_Sheet1!$J$1,_Sheet1!F12)</f>
+        <f>IF(_Sheet1!I12="",_Sheet1!$K$1,_Sheet1!I12)</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <f>IF(_Sheet1!G12="",_Sheet1!$J$1,_Sheet1!G12)</f>
+        <f>IF(_Sheet1!G12="",_Sheet1!$K$1,_Sheet1!G12)</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <f>IF(_Sheet1!H12="",_Sheet1!$J$1,_Sheet1!H12)</f>
+        <f>IF(_Sheet1!H12="",_Sheet1!$K$1,_Sheet1!H12)</f>
         <v>0</v>
       </c>
       <c r="M14" s="4">
-        <f>IF(_Sheet1!L12="",_Sheet1!$J$1,_Sheet1!L12)</f>
+        <f>IF(_Sheet1!I12="",_Sheet1!$K$1,_Sheet1!I12)</f>
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <f>IF(_Sheet1!I12="",_Sheet1!$J$1,_Sheet1!I12)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="66"/>
+        <f>IF(_Sheet1!M12="",_Sheet1!$K$1,_Sheet1!M12)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f>IF(_Sheet1!J12="",_Sheet1!$K$1,_Sheet1!J12)</f>
+        <v>0</v>
+      </c>
       <c r="P14" s="66"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="76"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="Q14" s="66"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="76"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="59">
         <v>0.541666666666667</v>
       </c>
       <c r="B15" s="3">
-        <f>IF(_Sheet1!A13="",_Sheet1!$J$1,_Sheet1!A13)</f>
+        <f>IF(_Sheet1!A13="",_Sheet1!$K$1,_Sheet1!A13)</f>
         <v>0</v>
       </c>
       <c r="C15" s="60">
-        <f>IF(_Sheet1!B13="",_Sheet1!$J$1,_Sheet1!B13)</f>
+        <f>IF(_Sheet1!B13="",_Sheet1!$K$1,_Sheet1!B13)</f>
         <v>0</v>
       </c>
       <c r="D15" s="60">
-        <f>IF(_Sheet1!C13="",_Sheet1!$J$1,_Sheet1!C13)</f>
+        <f>IF(_Sheet1!C13="",_Sheet1!$K$1,_Sheet1!C13)</f>
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <f>IF(_Sheet1!B13="",_Sheet1!$J$1,_Sheet1!B13)</f>
+        <f>IF(_Sheet1!B13="",_Sheet1!$K$1,_Sheet1!B13)</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <f>IF(_Sheet1!C13="",_Sheet1!$J$1,_Sheet1!C13)</f>
+        <f>IF(_Sheet1!C13="",_Sheet1!$K$1,_Sheet1!C13)</f>
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <f>IF(_Sheet1!D13="",_Sheet1!$J$1,_Sheet1!D13)</f>
+        <f>IF(_Sheet1!D13="",_Sheet1!$K$1,_Sheet1!D13)</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>IF(_Sheet1!E13="",_Sheet1!$J$1,_Sheet1!E13)</f>
+        <f>IF(_Sheet1!E13="",_Sheet1!$K$1,_Sheet1!E13)</f>
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <f>IF(_Sheet1!H13="",_Sheet1!$J$1,_Sheet1!H13)</f>
+        <f>IF(_Sheet1!F13="",_Sheet1!$K$1,_Sheet1!F13)</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <f>IF(_Sheet1!F13="",_Sheet1!$J$1,_Sheet1!F13)</f>
+        <f>IF(_Sheet1!I13="",_Sheet1!$K$1,_Sheet1!I13)</f>
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <f>IF(_Sheet1!G13="",_Sheet1!$J$1,_Sheet1!G13)</f>
+        <f>IF(_Sheet1!G13="",_Sheet1!$K$1,_Sheet1!G13)</f>
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <f>IF(_Sheet1!H13="",_Sheet1!$J$1,_Sheet1!H13)</f>
+        <f>IF(_Sheet1!H13="",_Sheet1!$K$1,_Sheet1!H13)</f>
         <v>0</v>
       </c>
       <c r="M15" s="4">
-        <f>IF(_Sheet1!L13="",_Sheet1!$J$1,_Sheet1!L13)</f>
+        <f>IF(_Sheet1!I13="",_Sheet1!$K$1,_Sheet1!I13)</f>
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f>IF(_Sheet1!I13="",_Sheet1!$J$1,_Sheet1!I13)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="66"/>
+        <f>IF(_Sheet1!M13="",_Sheet1!$K$1,_Sheet1!M13)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <f>IF(_Sheet1!J13="",_Sheet1!$K$1,_Sheet1!J13)</f>
+        <v>0</v>
+      </c>
       <c r="P15" s="66"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="76"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="Q15" s="66"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="76"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="59">
         <v>0.583333333333334</v>
       </c>
       <c r="B16" s="3">
-        <f>IF(_Sheet1!A14="",_Sheet1!$J$1,_Sheet1!A14)</f>
+        <f>IF(_Sheet1!A14="",_Sheet1!$K$1,_Sheet1!A14)</f>
         <v>0</v>
       </c>
       <c r="C16" s="60">
-        <f>IF(_Sheet1!B14="",_Sheet1!$J$1,_Sheet1!B14)</f>
+        <f>IF(_Sheet1!B14="",_Sheet1!$K$1,_Sheet1!B14)</f>
         <v>0</v>
       </c>
       <c r="D16" s="60">
-        <f>IF(_Sheet1!C14="",_Sheet1!$J$1,_Sheet1!C14)</f>
+        <f>IF(_Sheet1!C14="",_Sheet1!$K$1,_Sheet1!C14)</f>
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <f>IF(_Sheet1!B14="",_Sheet1!$J$1,_Sheet1!B14)</f>
+        <f>IF(_Sheet1!B14="",_Sheet1!$K$1,_Sheet1!B14)</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <f>IF(_Sheet1!C14="",_Sheet1!$J$1,_Sheet1!C14)</f>
+        <f>IF(_Sheet1!C14="",_Sheet1!$K$1,_Sheet1!C14)</f>
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <f>IF(_Sheet1!D14="",_Sheet1!$J$1,_Sheet1!D14)</f>
+        <f>IF(_Sheet1!D14="",_Sheet1!$K$1,_Sheet1!D14)</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>IF(_Sheet1!E14="",_Sheet1!$J$1,_Sheet1!E14)</f>
+        <f>IF(_Sheet1!E14="",_Sheet1!$K$1,_Sheet1!E14)</f>
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f>IF(_Sheet1!H14="",_Sheet1!$J$1,_Sheet1!H14)</f>
+        <f>IF(_Sheet1!F14="",_Sheet1!$K$1,_Sheet1!F14)</f>
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f>IF(_Sheet1!F14="",_Sheet1!$J$1,_Sheet1!F14)</f>
+        <f>IF(_Sheet1!I14="",_Sheet1!$K$1,_Sheet1!I14)</f>
         <v>0</v>
       </c>
       <c r="K16" s="4">
-        <f>IF(_Sheet1!G14="",_Sheet1!$J$1,_Sheet1!G14)</f>
+        <f>IF(_Sheet1!G14="",_Sheet1!$K$1,_Sheet1!G14)</f>
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <f>IF(_Sheet1!H14="",_Sheet1!$J$1,_Sheet1!H14)</f>
+        <f>IF(_Sheet1!H14="",_Sheet1!$K$1,_Sheet1!H14)</f>
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <f>IF(_Sheet1!L14="",_Sheet1!$J$1,_Sheet1!L14)</f>
+        <f>IF(_Sheet1!I14="",_Sheet1!$K$1,_Sheet1!I14)</f>
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <f>IF(_Sheet1!I14="",_Sheet1!$J$1,_Sheet1!I14)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="66"/>
+        <f>IF(_Sheet1!M14="",_Sheet1!$K$1,_Sheet1!M14)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f>IF(_Sheet1!J14="",_Sheet1!$K$1,_Sheet1!J14)</f>
+        <v>0</v>
+      </c>
       <c r="P16" s="66"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="76"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="Q16" s="66"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="76"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="59">
         <v>0.625</v>
       </c>
       <c r="B17" s="3">
-        <f>IF(_Sheet1!A15="",_Sheet1!$J$1,_Sheet1!A15)</f>
+        <f>IF(_Sheet1!A15="",_Sheet1!$K$1,_Sheet1!A15)</f>
         <v>0</v>
       </c>
       <c r="C17" s="60">
-        <f>IF(_Sheet1!B15="",_Sheet1!$J$1,_Sheet1!B15)</f>
+        <f>IF(_Sheet1!B15="",_Sheet1!$K$1,_Sheet1!B15)</f>
         <v>0</v>
       </c>
       <c r="D17" s="60">
-        <f>IF(_Sheet1!C15="",_Sheet1!$J$1,_Sheet1!C15)</f>
+        <f>IF(_Sheet1!C15="",_Sheet1!$K$1,_Sheet1!C15)</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f>IF(_Sheet1!B15="",_Sheet1!$J$1,_Sheet1!B15)</f>
+        <f>IF(_Sheet1!B15="",_Sheet1!$K$1,_Sheet1!B15)</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <f>IF(_Sheet1!C15="",_Sheet1!$J$1,_Sheet1!C15)</f>
+        <f>IF(_Sheet1!C15="",_Sheet1!$K$1,_Sheet1!C15)</f>
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <f>IF(_Sheet1!D15="",_Sheet1!$J$1,_Sheet1!D15)</f>
+        <f>IF(_Sheet1!D15="",_Sheet1!$K$1,_Sheet1!D15)</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>IF(_Sheet1!E15="",_Sheet1!$J$1,_Sheet1!E15)</f>
+        <f>IF(_Sheet1!E15="",_Sheet1!$K$1,_Sheet1!E15)</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f>IF(_Sheet1!H15="",_Sheet1!$J$1,_Sheet1!H15)</f>
+        <f>IF(_Sheet1!F15="",_Sheet1!$K$1,_Sheet1!F15)</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <f>IF(_Sheet1!F15="",_Sheet1!$J$1,_Sheet1!F15)</f>
+        <f>IF(_Sheet1!I15="",_Sheet1!$K$1,_Sheet1!I15)</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f>IF(_Sheet1!G15="",_Sheet1!$J$1,_Sheet1!G15)</f>
+        <f>IF(_Sheet1!G15="",_Sheet1!$K$1,_Sheet1!G15)</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>IF(_Sheet1!H15="",_Sheet1!$J$1,_Sheet1!H15)</f>
+        <f>IF(_Sheet1!H15="",_Sheet1!$K$1,_Sheet1!H15)</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <f>IF(_Sheet1!L15="",_Sheet1!$J$1,_Sheet1!L15)</f>
+        <f>IF(_Sheet1!I15="",_Sheet1!$K$1,_Sheet1!I15)</f>
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f>IF(_Sheet1!I15="",_Sheet1!$J$1,_Sheet1!I15)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="66"/>
+        <f>IF(_Sheet1!M15="",_Sheet1!$K$1,_Sheet1!M15)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>IF(_Sheet1!J15="",_Sheet1!$K$1,_Sheet1!J15)</f>
+        <v>0</v>
+      </c>
       <c r="P17" s="66"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="76"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="Q17" s="66"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="76"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="59">
         <v>0.666666666666667</v>
       </c>
       <c r="B18" s="3">
-        <f>IF(_Sheet1!A16="",_Sheet1!$J$1,_Sheet1!A16)</f>
+        <f>IF(_Sheet1!A16="",_Sheet1!$K$1,_Sheet1!A16)</f>
         <v>0</v>
       </c>
       <c r="C18" s="60">
-        <f>IF(_Sheet1!B16="",_Sheet1!$J$1,_Sheet1!B16)</f>
+        <f>IF(_Sheet1!B16="",_Sheet1!$K$1,_Sheet1!B16)</f>
         <v>0</v>
       </c>
       <c r="D18" s="60">
-        <f>IF(_Sheet1!C16="",_Sheet1!$J$1,_Sheet1!C16)</f>
+        <f>IF(_Sheet1!C16="",_Sheet1!$K$1,_Sheet1!C16)</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <f>IF(_Sheet1!B16="",_Sheet1!$J$1,_Sheet1!B16)</f>
+        <f>IF(_Sheet1!B16="",_Sheet1!$K$1,_Sheet1!B16)</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <f>IF(_Sheet1!C16="",_Sheet1!$J$1,_Sheet1!C16)</f>
+        <f>IF(_Sheet1!C16="",_Sheet1!$K$1,_Sheet1!C16)</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <f>IF(_Sheet1!D16="",_Sheet1!$J$1,_Sheet1!D16)</f>
+        <f>IF(_Sheet1!D16="",_Sheet1!$K$1,_Sheet1!D16)</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>IF(_Sheet1!E16="",_Sheet1!$J$1,_Sheet1!E16)</f>
+        <f>IF(_Sheet1!E16="",_Sheet1!$K$1,_Sheet1!E16)</f>
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f>IF(_Sheet1!H16="",_Sheet1!$J$1,_Sheet1!H16)</f>
+        <f>IF(_Sheet1!F16="",_Sheet1!$K$1,_Sheet1!F16)</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f>IF(_Sheet1!F16="",_Sheet1!$J$1,_Sheet1!F16)</f>
+        <f>IF(_Sheet1!I16="",_Sheet1!$K$1,_Sheet1!I16)</f>
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <f>IF(_Sheet1!G16="",_Sheet1!$J$1,_Sheet1!G16)</f>
+        <f>IF(_Sheet1!G16="",_Sheet1!$K$1,_Sheet1!G16)</f>
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f>IF(_Sheet1!H16="",_Sheet1!$J$1,_Sheet1!H16)</f>
+        <f>IF(_Sheet1!H16="",_Sheet1!$K$1,_Sheet1!H16)</f>
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <f>IF(_Sheet1!L16="",_Sheet1!$J$1,_Sheet1!L16)</f>
+        <f>IF(_Sheet1!I16="",_Sheet1!$K$1,_Sheet1!I16)</f>
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f>IF(_Sheet1!I16="",_Sheet1!$J$1,_Sheet1!I16)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="66"/>
+        <f>IF(_Sheet1!M16="",_Sheet1!$K$1,_Sheet1!M16)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <f>IF(_Sheet1!J16="",_Sheet1!$K$1,_Sheet1!J16)</f>
+        <v>0</v>
+      </c>
       <c r="P18" s="66"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="76"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="Q18" s="66"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="76"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="59">
         <v>0.708333333333334</v>
       </c>
       <c r="B19" s="3">
-        <f>IF(_Sheet1!A17="",_Sheet1!$J$1,_Sheet1!A17)</f>
+        <f>IF(_Sheet1!A17="",_Sheet1!$K$1,_Sheet1!A17)</f>
         <v>0</v>
       </c>
       <c r="C19" s="60">
-        <f>IF(_Sheet1!B17="",_Sheet1!$J$1,_Sheet1!B17)</f>
+        <f>IF(_Sheet1!B17="",_Sheet1!$K$1,_Sheet1!B17)</f>
         <v>0</v>
       </c>
       <c r="D19" s="60">
-        <f>IF(_Sheet1!C17="",_Sheet1!$J$1,_Sheet1!C17)</f>
+        <f>IF(_Sheet1!C17="",_Sheet1!$K$1,_Sheet1!C17)</f>
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <f>IF(_Sheet1!B17="",_Sheet1!$J$1,_Sheet1!B17)</f>
+        <f>IF(_Sheet1!B17="",_Sheet1!$K$1,_Sheet1!B17)</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <f>IF(_Sheet1!C17="",_Sheet1!$J$1,_Sheet1!C17)</f>
+        <f>IF(_Sheet1!C17="",_Sheet1!$K$1,_Sheet1!C17)</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <f>IF(_Sheet1!D17="",_Sheet1!$J$1,_Sheet1!D17)</f>
+        <f>IF(_Sheet1!D17="",_Sheet1!$K$1,_Sheet1!D17)</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f>IF(_Sheet1!E17="",_Sheet1!$J$1,_Sheet1!E17)</f>
+        <f>IF(_Sheet1!E17="",_Sheet1!$K$1,_Sheet1!E17)</f>
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <f>IF(_Sheet1!H17="",_Sheet1!$J$1,_Sheet1!H17)</f>
+        <f>IF(_Sheet1!F17="",_Sheet1!$K$1,_Sheet1!F17)</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f>IF(_Sheet1!F17="",_Sheet1!$J$1,_Sheet1!F17)</f>
+        <f>IF(_Sheet1!I17="",_Sheet1!$K$1,_Sheet1!I17)</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
-        <f>IF(_Sheet1!G17="",_Sheet1!$J$1,_Sheet1!G17)</f>
+        <f>IF(_Sheet1!G17="",_Sheet1!$K$1,_Sheet1!G17)</f>
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <f>IF(_Sheet1!H17="",_Sheet1!$J$1,_Sheet1!H17)</f>
+        <f>IF(_Sheet1!H17="",_Sheet1!$K$1,_Sheet1!H17)</f>
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <f>IF(_Sheet1!L17="",_Sheet1!$J$1,_Sheet1!L17)</f>
+        <f>IF(_Sheet1!I17="",_Sheet1!$K$1,_Sheet1!I17)</f>
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f>IF(_Sheet1!I17="",_Sheet1!$J$1,_Sheet1!I17)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="66"/>
+        <f>IF(_Sheet1!M17="",_Sheet1!$K$1,_Sheet1!M17)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <f>IF(_Sheet1!J17="",_Sheet1!$K$1,_Sheet1!J17)</f>
+        <v>0</v>
+      </c>
       <c r="P19" s="66"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="76"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="Q19" s="66"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="76"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="59">
         <v>0.75</v>
       </c>
       <c r="B20" s="3">
-        <f>IF(_Sheet1!A18="",_Sheet1!$J$1,_Sheet1!A18)</f>
+        <f>IF(_Sheet1!A18="",_Sheet1!$K$1,_Sheet1!A18)</f>
         <v>0</v>
       </c>
       <c r="C20" s="60">
-        <f>IF(_Sheet1!B18="",_Sheet1!$J$1,_Sheet1!B18)</f>
+        <f>IF(_Sheet1!B18="",_Sheet1!$K$1,_Sheet1!B18)</f>
         <v>0</v>
       </c>
       <c r="D20" s="60">
-        <f>IF(_Sheet1!C18="",_Sheet1!$J$1,_Sheet1!C18)</f>
+        <f>IF(_Sheet1!C18="",_Sheet1!$K$1,_Sheet1!C18)</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <f>IF(_Sheet1!B18="",_Sheet1!$J$1,_Sheet1!B18)</f>
+        <f>IF(_Sheet1!B18="",_Sheet1!$K$1,_Sheet1!B18)</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
-        <f>IF(_Sheet1!C18="",_Sheet1!$J$1,_Sheet1!C18)</f>
+        <f>IF(_Sheet1!C18="",_Sheet1!$K$1,_Sheet1!C18)</f>
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <f>IF(_Sheet1!D18="",_Sheet1!$J$1,_Sheet1!D18)</f>
+        <f>IF(_Sheet1!D18="",_Sheet1!$K$1,_Sheet1!D18)</f>
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>IF(_Sheet1!E18="",_Sheet1!$J$1,_Sheet1!E18)</f>
+        <f>IF(_Sheet1!E18="",_Sheet1!$K$1,_Sheet1!E18)</f>
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f>IF(_Sheet1!H18="",_Sheet1!$J$1,_Sheet1!H18)</f>
+        <f>IF(_Sheet1!F18="",_Sheet1!$K$1,_Sheet1!F18)</f>
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <f>IF(_Sheet1!F18="",_Sheet1!$J$1,_Sheet1!F18)</f>
+        <f>IF(_Sheet1!I18="",_Sheet1!$K$1,_Sheet1!I18)</f>
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <f>IF(_Sheet1!G18="",_Sheet1!$J$1,_Sheet1!G18)</f>
+        <f>IF(_Sheet1!G18="",_Sheet1!$K$1,_Sheet1!G18)</f>
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <f>IF(_Sheet1!H18="",_Sheet1!$J$1,_Sheet1!H18)</f>
+        <f>IF(_Sheet1!H18="",_Sheet1!$K$1,_Sheet1!H18)</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <f>IF(_Sheet1!L18="",_Sheet1!$J$1,_Sheet1!L18)</f>
+        <f>IF(_Sheet1!I18="",_Sheet1!$K$1,_Sheet1!I18)</f>
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f>IF(_Sheet1!I18="",_Sheet1!$J$1,_Sheet1!I18)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="66"/>
+        <f>IF(_Sheet1!M18="",_Sheet1!$K$1,_Sheet1!M18)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <f>IF(_Sheet1!J18="",_Sheet1!$K$1,_Sheet1!J18)</f>
+        <v>0</v>
+      </c>
       <c r="P20" s="66"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="76"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="Q20" s="66"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="76"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="59">
         <v>0.791666666666667</v>
       </c>
       <c r="B21" s="3">
-        <f>IF(_Sheet1!A19="",_Sheet1!$J$1,_Sheet1!A19)</f>
+        <f>IF(_Sheet1!A19="",_Sheet1!$K$1,_Sheet1!A19)</f>
         <v>0</v>
       </c>
       <c r="C21" s="60">
-        <f>IF(_Sheet1!B19="",_Sheet1!$J$1,_Sheet1!B19)</f>
+        <f>IF(_Sheet1!B19="",_Sheet1!$K$1,_Sheet1!B19)</f>
         <v>0</v>
       </c>
       <c r="D21" s="60">
-        <f>IF(_Sheet1!C19="",_Sheet1!$J$1,_Sheet1!C19)</f>
+        <f>IF(_Sheet1!C19="",_Sheet1!$K$1,_Sheet1!C19)</f>
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <f>IF(_Sheet1!B19="",_Sheet1!$J$1,_Sheet1!B19)</f>
+        <f>IF(_Sheet1!B19="",_Sheet1!$K$1,_Sheet1!B19)</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f>IF(_Sheet1!C19="",_Sheet1!$J$1,_Sheet1!C19)</f>
+        <f>IF(_Sheet1!C19="",_Sheet1!$K$1,_Sheet1!C19)</f>
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f>IF(_Sheet1!D19="",_Sheet1!$J$1,_Sheet1!D19)</f>
+        <f>IF(_Sheet1!D19="",_Sheet1!$K$1,_Sheet1!D19)</f>
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>IF(_Sheet1!E19="",_Sheet1!$J$1,_Sheet1!E19)</f>
+        <f>IF(_Sheet1!E19="",_Sheet1!$K$1,_Sheet1!E19)</f>
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f>IF(_Sheet1!H19="",_Sheet1!$J$1,_Sheet1!H19)</f>
+        <f>IF(_Sheet1!F19="",_Sheet1!$K$1,_Sheet1!F19)</f>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f>IF(_Sheet1!F19="",_Sheet1!$J$1,_Sheet1!F19)</f>
+        <f>IF(_Sheet1!I19="",_Sheet1!$K$1,_Sheet1!I19)</f>
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f>IF(_Sheet1!G19="",_Sheet1!$J$1,_Sheet1!G19)</f>
+        <f>IF(_Sheet1!G19="",_Sheet1!$K$1,_Sheet1!G19)</f>
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <f>IF(_Sheet1!H19="",_Sheet1!$J$1,_Sheet1!H19)</f>
+        <f>IF(_Sheet1!H19="",_Sheet1!$K$1,_Sheet1!H19)</f>
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <f>IF(_Sheet1!L19="",_Sheet1!$J$1,_Sheet1!L19)</f>
+        <f>IF(_Sheet1!I19="",_Sheet1!$K$1,_Sheet1!I19)</f>
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f>IF(_Sheet1!I19="",_Sheet1!$J$1,_Sheet1!I19)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="66"/>
+        <f>IF(_Sheet1!M19="",_Sheet1!$K$1,_Sheet1!M19)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <f>IF(_Sheet1!J19="",_Sheet1!$K$1,_Sheet1!J19)</f>
+        <v>0</v>
+      </c>
       <c r="P21" s="66"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="76"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="Q21" s="66"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="76"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="59">
         <v>0.833333333333334</v>
       </c>
       <c r="B22" s="3">
-        <f>IF(_Sheet1!A20="",_Sheet1!$J$1,_Sheet1!A20)</f>
+        <f>IF(_Sheet1!A20="",_Sheet1!$K$1,_Sheet1!A20)</f>
         <v>0</v>
       </c>
       <c r="C22" s="60">
-        <f>IF(_Sheet1!B20="",_Sheet1!$J$1,_Sheet1!B20)</f>
+        <f>IF(_Sheet1!B20="",_Sheet1!$K$1,_Sheet1!B20)</f>
         <v>0</v>
       </c>
       <c r="D22" s="60">
-        <f>IF(_Sheet1!C20="",_Sheet1!$J$1,_Sheet1!C20)</f>
+        <f>IF(_Sheet1!C20="",_Sheet1!$K$1,_Sheet1!C20)</f>
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <f>IF(_Sheet1!B20="",_Sheet1!$J$1,_Sheet1!B20)</f>
+        <f>IF(_Sheet1!B20="",_Sheet1!$K$1,_Sheet1!B20)</f>
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <f>IF(_Sheet1!C20="",_Sheet1!$J$1,_Sheet1!C20)</f>
+        <f>IF(_Sheet1!C20="",_Sheet1!$K$1,_Sheet1!C20)</f>
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f>IF(_Sheet1!D20="",_Sheet1!$J$1,_Sheet1!D20)</f>
+        <f>IF(_Sheet1!D20="",_Sheet1!$K$1,_Sheet1!D20)</f>
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>IF(_Sheet1!E20="",_Sheet1!$J$1,_Sheet1!E20)</f>
+        <f>IF(_Sheet1!E20="",_Sheet1!$K$1,_Sheet1!E20)</f>
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f>IF(_Sheet1!H20="",_Sheet1!$J$1,_Sheet1!H20)</f>
+        <f>IF(_Sheet1!F20="",_Sheet1!$K$1,_Sheet1!F20)</f>
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <f>IF(_Sheet1!F20="",_Sheet1!$J$1,_Sheet1!F20)</f>
+        <f>IF(_Sheet1!I20="",_Sheet1!$K$1,_Sheet1!I20)</f>
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f>IF(_Sheet1!G20="",_Sheet1!$J$1,_Sheet1!G20)</f>
+        <f>IF(_Sheet1!G20="",_Sheet1!$K$1,_Sheet1!G20)</f>
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <f>IF(_Sheet1!H20="",_Sheet1!$J$1,_Sheet1!H20)</f>
+        <f>IF(_Sheet1!H20="",_Sheet1!$K$1,_Sheet1!H20)</f>
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <f>IF(_Sheet1!L20="",_Sheet1!$J$1,_Sheet1!L20)</f>
+        <f>IF(_Sheet1!I20="",_Sheet1!$K$1,_Sheet1!I20)</f>
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <f>IF(_Sheet1!I20="",_Sheet1!$J$1,_Sheet1!I20)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="66"/>
+        <f>IF(_Sheet1!M20="",_Sheet1!$K$1,_Sheet1!M20)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <f>IF(_Sheet1!J20="",_Sheet1!$K$1,_Sheet1!J20)</f>
+        <v>0</v>
+      </c>
       <c r="P22" s="66"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="76"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="Q22" s="66"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="76"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="59">
         <v>0.875</v>
       </c>
       <c r="B23" s="3">
-        <f>IF(_Sheet1!A21="",_Sheet1!$J$1,_Sheet1!A21)</f>
+        <f>IF(_Sheet1!A21="",_Sheet1!$K$1,_Sheet1!A21)</f>
         <v>0</v>
       </c>
       <c r="C23" s="60">
-        <f>IF(_Sheet1!B21="",_Sheet1!$J$1,_Sheet1!B21)</f>
+        <f>IF(_Sheet1!B21="",_Sheet1!$K$1,_Sheet1!B21)</f>
         <v>0</v>
       </c>
       <c r="D23" s="60">
-        <f>IF(_Sheet1!C21="",_Sheet1!$J$1,_Sheet1!C21)</f>
+        <f>IF(_Sheet1!C21="",_Sheet1!$K$1,_Sheet1!C21)</f>
         <v>0</v>
       </c>
       <c r="E23" s="4">
-        <f>IF(_Sheet1!B21="",_Sheet1!$J$1,_Sheet1!B21)</f>
+        <f>IF(_Sheet1!B21="",_Sheet1!$K$1,_Sheet1!B21)</f>
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f>IF(_Sheet1!C21="",_Sheet1!$J$1,_Sheet1!C21)</f>
+        <f>IF(_Sheet1!C21="",_Sheet1!$K$1,_Sheet1!C21)</f>
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f>IF(_Sheet1!D21="",_Sheet1!$J$1,_Sheet1!D21)</f>
+        <f>IF(_Sheet1!D21="",_Sheet1!$K$1,_Sheet1!D21)</f>
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>IF(_Sheet1!E21="",_Sheet1!$J$1,_Sheet1!E21)</f>
+        <f>IF(_Sheet1!E21="",_Sheet1!$K$1,_Sheet1!E21)</f>
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f>IF(_Sheet1!H21="",_Sheet1!$J$1,_Sheet1!H21)</f>
+        <f>IF(_Sheet1!F21="",_Sheet1!$K$1,_Sheet1!F21)</f>
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <f>IF(_Sheet1!F21="",_Sheet1!$J$1,_Sheet1!F21)</f>
+        <f>IF(_Sheet1!I21="",_Sheet1!$K$1,_Sheet1!I21)</f>
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <f>IF(_Sheet1!G21="",_Sheet1!$J$1,_Sheet1!G21)</f>
+        <f>IF(_Sheet1!G21="",_Sheet1!$K$1,_Sheet1!G21)</f>
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <f>IF(_Sheet1!H21="",_Sheet1!$J$1,_Sheet1!H21)</f>
+        <f>IF(_Sheet1!H21="",_Sheet1!$K$1,_Sheet1!H21)</f>
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <f>IF(_Sheet1!L21="",_Sheet1!$J$1,_Sheet1!L21)</f>
+        <f>IF(_Sheet1!I21="",_Sheet1!$K$1,_Sheet1!I21)</f>
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f>IF(_Sheet1!I21="",_Sheet1!$J$1,_Sheet1!I21)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="66"/>
+        <f>IF(_Sheet1!M21="",_Sheet1!$K$1,_Sheet1!M21)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <f>IF(_Sheet1!J21="",_Sheet1!$K$1,_Sheet1!J21)</f>
+        <v>0</v>
+      </c>
       <c r="P23" s="66"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="76"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="Q23" s="66"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="76"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="59">
         <v>0.916666666666667</v>
       </c>
       <c r="B24" s="3">
-        <f>IF(_Sheet1!A22="",_Sheet1!$J$1,_Sheet1!A22)</f>
+        <f>IF(_Sheet1!A22="",_Sheet1!$K$1,_Sheet1!A22)</f>
         <v>0</v>
       </c>
       <c r="C24" s="60">
-        <f>IF(_Sheet1!B22="",_Sheet1!$J$1,_Sheet1!B22)</f>
+        <f>IF(_Sheet1!B22="",_Sheet1!$K$1,_Sheet1!B22)</f>
         <v>0</v>
       </c>
       <c r="D24" s="60">
-        <f>IF(_Sheet1!C22="",_Sheet1!$J$1,_Sheet1!C22)</f>
+        <f>IF(_Sheet1!C22="",_Sheet1!$K$1,_Sheet1!C22)</f>
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <f>IF(_Sheet1!B22="",_Sheet1!$J$1,_Sheet1!B22)</f>
+        <f>IF(_Sheet1!B22="",_Sheet1!$K$1,_Sheet1!B22)</f>
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <f>IF(_Sheet1!C22="",_Sheet1!$J$1,_Sheet1!C22)</f>
+        <f>IF(_Sheet1!C22="",_Sheet1!$K$1,_Sheet1!C22)</f>
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f>IF(_Sheet1!D22="",_Sheet1!$J$1,_Sheet1!D22)</f>
+        <f>IF(_Sheet1!D22="",_Sheet1!$K$1,_Sheet1!D22)</f>
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>IF(_Sheet1!E22="",_Sheet1!$J$1,_Sheet1!E22)</f>
+        <f>IF(_Sheet1!E22="",_Sheet1!$K$1,_Sheet1!E22)</f>
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <f>IF(_Sheet1!H22="",_Sheet1!$J$1,_Sheet1!H22)</f>
+        <f>IF(_Sheet1!F22="",_Sheet1!$K$1,_Sheet1!F22)</f>
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <f>IF(_Sheet1!F22="",_Sheet1!$J$1,_Sheet1!F22)</f>
+        <f>IF(_Sheet1!I22="",_Sheet1!$K$1,_Sheet1!I22)</f>
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <f>IF(_Sheet1!G22="",_Sheet1!$J$1,_Sheet1!G22)</f>
+        <f>IF(_Sheet1!G22="",_Sheet1!$K$1,_Sheet1!G22)</f>
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <f>IF(_Sheet1!H22="",_Sheet1!$J$1,_Sheet1!H22)</f>
+        <f>IF(_Sheet1!H22="",_Sheet1!$K$1,_Sheet1!H22)</f>
         <v>0</v>
       </c>
       <c r="M24" s="4">
-        <f>IF(_Sheet1!L22="",_Sheet1!$J$1,_Sheet1!L22)</f>
+        <f>IF(_Sheet1!I22="",_Sheet1!$K$1,_Sheet1!I22)</f>
         <v>0</v>
       </c>
       <c r="N24" s="4">
-        <f>IF(_Sheet1!I22="",_Sheet1!$J$1,_Sheet1!I22)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="66"/>
+        <f>IF(_Sheet1!M22="",_Sheet1!$K$1,_Sheet1!M22)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <f>IF(_Sheet1!J22="",_Sheet1!$K$1,_Sheet1!J22)</f>
+        <v>0</v>
+      </c>
       <c r="P24" s="66"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="76"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="Q24" s="66"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="76"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="59">
         <v>0.958333333333334</v>
       </c>
       <c r="B25" s="3">
-        <f>IF(_Sheet1!A23="",_Sheet1!$J$1,_Sheet1!A23)</f>
+        <f>IF(_Sheet1!A23="",_Sheet1!$K$1,_Sheet1!A23)</f>
         <v>0</v>
       </c>
       <c r="C25" s="60">
-        <f>IF(_Sheet1!B23="",_Sheet1!$J$1,_Sheet1!B23)</f>
+        <f>IF(_Sheet1!B23="",_Sheet1!$K$1,_Sheet1!B23)</f>
         <v>0</v>
       </c>
       <c r="D25" s="60">
-        <f>IF(_Sheet1!C23="",_Sheet1!$J$1,_Sheet1!C23)</f>
+        <f>IF(_Sheet1!C23="",_Sheet1!$K$1,_Sheet1!C23)</f>
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <f>IF(_Sheet1!B23="",_Sheet1!$J$1,_Sheet1!B23)</f>
+        <f>IF(_Sheet1!B23="",_Sheet1!$K$1,_Sheet1!B23)</f>
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f>IF(_Sheet1!C23="",_Sheet1!$J$1,_Sheet1!C23)</f>
+        <f>IF(_Sheet1!C23="",_Sheet1!$K$1,_Sheet1!C23)</f>
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f>IF(_Sheet1!D23="",_Sheet1!$J$1,_Sheet1!D23)</f>
+        <f>IF(_Sheet1!D23="",_Sheet1!$K$1,_Sheet1!D23)</f>
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>IF(_Sheet1!E23="",_Sheet1!$J$1,_Sheet1!E23)</f>
+        <f>IF(_Sheet1!E23="",_Sheet1!$K$1,_Sheet1!E23)</f>
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <f>IF(_Sheet1!H23="",_Sheet1!$J$1,_Sheet1!H23)</f>
+        <f>IF(_Sheet1!F23="",_Sheet1!$K$1,_Sheet1!F23)</f>
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <f>IF(_Sheet1!F23="",_Sheet1!$J$1,_Sheet1!F23)</f>
+        <f>IF(_Sheet1!I23="",_Sheet1!$K$1,_Sheet1!I23)</f>
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <f>IF(_Sheet1!G23="",_Sheet1!$J$1,_Sheet1!G23)</f>
+        <f>IF(_Sheet1!G23="",_Sheet1!$K$1,_Sheet1!G23)</f>
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <f>IF(_Sheet1!H23="",_Sheet1!$J$1,_Sheet1!H23)</f>
+        <f>IF(_Sheet1!H23="",_Sheet1!$K$1,_Sheet1!H23)</f>
         <v>0</v>
       </c>
       <c r="M25" s="4">
-        <f>IF(_Sheet1!L23="",_Sheet1!$J$1,_Sheet1!L23)</f>
+        <f>IF(_Sheet1!I23="",_Sheet1!$K$1,_Sheet1!I23)</f>
         <v>0</v>
       </c>
       <c r="N25" s="4">
-        <f>IF(_Sheet1!I23="",_Sheet1!$J$1,_Sheet1!I23)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="66"/>
+        <f>IF(_Sheet1!M23="",_Sheet1!$K$1,_Sheet1!M23)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <f>IF(_Sheet1!J23="",_Sheet1!$K$1,_Sheet1!J23)</f>
+        <v>0</v>
+      </c>
       <c r="P25" s="66"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="76"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="Q25" s="66"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="76"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="59">
         <v>1</v>
       </c>
       <c r="B26" s="3">
-        <f>IF(_Sheet1!A24="",_Sheet1!$J$1,_Sheet1!A24)</f>
+        <f>IF(_Sheet1!A24="",_Sheet1!$K$1,_Sheet1!A24)</f>
         <v>0</v>
       </c>
       <c r="C26" s="60">
-        <f>IF(_Sheet1!B24="",_Sheet1!$J$1,_Sheet1!B24)</f>
+        <f>IF(_Sheet1!B24="",_Sheet1!$K$1,_Sheet1!B24)</f>
         <v>0</v>
       </c>
       <c r="D26" s="60">
-        <f>IF(_Sheet1!C24="",_Sheet1!$J$1,_Sheet1!C24)</f>
+        <f>IF(_Sheet1!C24="",_Sheet1!$K$1,_Sheet1!C24)</f>
         <v>0</v>
       </c>
       <c r="E26" s="4">
-        <f>IF(_Sheet1!B24="",_Sheet1!$J$1,_Sheet1!B24)</f>
+        <f>IF(_Sheet1!B24="",_Sheet1!$K$1,_Sheet1!B24)</f>
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <f>IF(_Sheet1!C24="",_Sheet1!$J$1,_Sheet1!C24)</f>
+        <f>IF(_Sheet1!C24="",_Sheet1!$K$1,_Sheet1!C24)</f>
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <f>IF(_Sheet1!D24="",_Sheet1!$J$1,_Sheet1!D24)</f>
+        <f>IF(_Sheet1!D24="",_Sheet1!$K$1,_Sheet1!D24)</f>
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>IF(_Sheet1!E24="",_Sheet1!$J$1,_Sheet1!E24)</f>
+        <f>IF(_Sheet1!E24="",_Sheet1!$K$1,_Sheet1!E24)</f>
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <f>IF(_Sheet1!H24="",_Sheet1!$J$1,_Sheet1!H24)</f>
+        <f>IF(_Sheet1!F24="",_Sheet1!$K$1,_Sheet1!F24)</f>
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f>IF(_Sheet1!F24="",_Sheet1!$J$1,_Sheet1!F24)</f>
+        <f>IF(_Sheet1!I24="",_Sheet1!$K$1,_Sheet1!I24)</f>
         <v>0</v>
       </c>
       <c r="K26" s="4">
-        <f>IF(_Sheet1!G24="",_Sheet1!$J$1,_Sheet1!G24)</f>
+        <f>IF(_Sheet1!G24="",_Sheet1!$K$1,_Sheet1!G24)</f>
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <f>IF(_Sheet1!H24="",_Sheet1!$J$1,_Sheet1!H24)</f>
+        <f>IF(_Sheet1!H24="",_Sheet1!$K$1,_Sheet1!H24)</f>
         <v>0</v>
       </c>
       <c r="M26" s="4">
-        <f>IF(_Sheet1!L24="",_Sheet1!$J$1,_Sheet1!L24)</f>
+        <f>IF(_Sheet1!I24="",_Sheet1!$K$1,_Sheet1!I24)</f>
         <v>0</v>
       </c>
       <c r="N26" s="4">
-        <f>IF(_Sheet1!I24="",_Sheet1!$J$1,_Sheet1!I24)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="66"/>
+        <f>IF(_Sheet1!M24="",_Sheet1!$K$1,_Sheet1!M24)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <f>IF(_Sheet1!J24="",_Sheet1!$K$1,_Sheet1!J24)</f>
+        <v>0</v>
+      </c>
       <c r="P26" s="66"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="76"/>
-    </row>
-    <row r="27" ht="15" spans="1:18">
+      <c r="Q26" s="66"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="76"/>
+    </row>
+    <row r="27" ht="15" spans="1:19">
       <c r="A27" s="72" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="63">
-        <f>IFERROR(AVERAGE(B3:B10),"")</f>
+        <f t="shared" ref="B27:H27" si="0">IFERROR(AVERAGE(B3:B10),"")</f>
         <v>0</v>
       </c>
       <c r="C27" s="63">
-        <f t="shared" ref="B27:N27" si="0">IFERROR(AVERAGE(C3:C10),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="63">
@@ -3294,221 +3268,237 @@
         <v>0</v>
       </c>
       <c r="I27" s="63">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I27:O27" si="1">IFERROR(AVERAGE(I3:I10),"")</f>
         <v>0</v>
       </c>
       <c r="J27" s="63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L27" s="63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M27" s="63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N27" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="66"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P27" s="66"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="76"/>
-    </row>
-    <row r="28" ht="15" spans="1:18">
+      <c r="Q27" s="66"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="76"/>
+    </row>
+    <row r="28" ht="15" spans="1:19">
       <c r="A28" s="72" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="63">
-        <f>IFERROR(AVERAGE(B11:B18),"")</f>
+        <f t="shared" ref="B28:H28" si="2">IFERROR(AVERAGE(B11:B18),"")</f>
         <v>0</v>
       </c>
       <c r="C28" s="63">
-        <f t="shared" ref="B28:N28" si="1">IFERROR(AVERAGE(C11:C18),"")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D28" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E28" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I28:O28" si="3">IFERROR(AVERAGE(I11:I18),"")</f>
         <v>0</v>
       </c>
       <c r="J28" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K28" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L28" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M28" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N28" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="66"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P28" s="66"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="76"/>
-    </row>
-    <row r="29" ht="15" spans="1:18">
+      <c r="Q28" s="66"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="76"/>
+    </row>
+    <row r="29" ht="15" spans="1:19">
       <c r="A29" s="72" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="63">
-        <f>IFERROR(AVERAGE(B19:B26),"")</f>
+        <f t="shared" ref="B29:H29" si="4">IFERROR(AVERAGE(B19:B26),"")</f>
         <v>0</v>
       </c>
       <c r="C29" s="63">
-        <f t="shared" ref="B29:N29" si="2">IFERROR(AVERAGE(C19:C26),"")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D29" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E29" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F29" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G29" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H29" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I29" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I29:O29" si="5">IFERROR(AVERAGE(I19:I26),"")</f>
         <v>0</v>
       </c>
       <c r="J29" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K29" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L29" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M29" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N29" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="66"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P29" s="66"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="76"/>
-    </row>
-    <row r="30" ht="15" spans="1:18">
+      <c r="Q29" s="66"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="76"/>
+    </row>
+    <row r="30" ht="15" spans="1:19">
       <c r="A30" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="63">
-        <f>IFERROR(AVERAGE(B3:B26),"")</f>
+        <f t="shared" ref="B30:H30" si="6">IFERROR(AVERAGE(B3:B26),"")</f>
         <v>0</v>
       </c>
       <c r="C30" s="63">
-        <f t="shared" ref="B30:N30" si="3">IFERROR(AVERAGE(C3:C26),"")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D30" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E30" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F30" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G30" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H30" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I30" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I30:O30" si="7">IFERROR(AVERAGE(I3:I26),"")</f>
         <v>0</v>
       </c>
       <c r="J30" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K30" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L30" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M30" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N30" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="73"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P30" s="73"/>
       <c r="Q30" s="73"/>
-      <c r="R30" s="77"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="R3:R30"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="S3:S30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5146,8 +5136,8 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -5447,7 +5437,7 @@
       <c r="E18" s="19"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" ht="15" spans="1:6">
+    <row r="19" spans="1:6">
       <c r="A19" s="25">
         <v>0.666666666666667</v>
       </c>
@@ -5670,7 +5660,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5719,7 +5709,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N19"/>
+      <selection activeCell="A2" sqref="A2:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5727,7 +5717,7 @@
     <col min="2" max="2" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.75" customHeight="1" spans="1:14">
+    <row r="1" ht="65" customHeight="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>66</v>
       </c>
@@ -5781,179 +5771,14 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H29" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1">
-        <v>43566.7317143634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22">
-        <v>43556.7317143634</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -5963,44 +5788,43 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" ht="42.75" spans="1:7">
+    <row r="1" ht="42.75" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="8:8">
-      <c r="H2">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6008,22 +5832,22 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.5" style="2"/>
-    <col min="8" max="8" width="12.625" style="2"/>
-    <col min="9" max="9" width="9" style="2"/>
+    <col min="2" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="11.5" style="2"/>
+    <col min="9" max="9" width="12.625" style="2"/>
+    <col min="10" max="10" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="str">
         <f>IF(_tag1_day_all!N2="","",_tag1_day_all!N2)</f>
         <v/>
@@ -6041,7 +5865,7 @@
         <v/>
       </c>
       <c r="E1" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D2="","",_anaCharge2_day_hour!D2*A1)</f>
+        <f>IF(_anaCharge2_day_hour!D2="","",_anaCharge2_day_hour!D2*B1)</f>
         <v/>
       </c>
       <c r="F1" s="4" t="str">
@@ -6053,18 +5877,22 @@
         <v/>
       </c>
       <c r="H1" s="4" t="str">
-        <f t="shared" ref="H1:H24" si="0">IFERROR(G1/SUM(B1,C1),"")</f>
+        <f>IF(_anaCharge2_day_hour!G2="","",_anaCharge2_day_hour!G2*A1)</f>
         <v/>
       </c>
       <c r="I1" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G2="","",_anaCharge2_day_hour!G2)</f>
-        <v/>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <f t="shared" ref="I1:I24" si="0">IFERROR(H1/SUM(B1,C1),"")</f>
+        <v/>
+      </c>
+      <c r="J1" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H2="","",_anaCharge2_day_hour!H2)</f>
+        <v/>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="str">
         <f>IF(_tag1_day_all!N3="","",_tag1_day_all!N3)</f>
         <v/>
@@ -6082,7 +5910,7 @@
         <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D3="","",_anaCharge2_day_hour!D3*A2)</f>
+        <f>IF(_anaCharge2_day_hour!D3="","",_anaCharge2_day_hour!D3*B2)</f>
         <v/>
       </c>
       <c r="F2" s="4" t="str">
@@ -6094,15 +5922,19 @@
         <v/>
       </c>
       <c r="H2" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G3="","",_anaCharge2_day_hour!G3*A2)</f>
+        <v/>
+      </c>
+      <c r="I2" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I2" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G3="","",_anaCharge2_day_hour!G3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H3="","",_anaCharge2_day_hour!H3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="str">
         <f>IF(_tag1_day_all!N4="","",_tag1_day_all!N4)</f>
         <v/>
@@ -6120,7 +5952,7 @@
         <v/>
       </c>
       <c r="E3" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D4="","",_anaCharge2_day_hour!D4*A3)</f>
+        <f>IF(_anaCharge2_day_hour!D4="","",_anaCharge2_day_hour!D4*B3)</f>
         <v/>
       </c>
       <c r="F3" s="4" t="str">
@@ -6132,15 +5964,19 @@
         <v/>
       </c>
       <c r="H3" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G4="","",_anaCharge2_day_hour!G4*A3)</f>
+        <v/>
+      </c>
+      <c r="I3" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I3" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G4="","",_anaCharge2_day_hour!G4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H4="","",_anaCharge2_day_hour!H4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="str">
         <f>IF(_tag1_day_all!N5="","",_tag1_day_all!N5)</f>
         <v/>
@@ -6158,7 +5994,7 @@
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D5="","",_anaCharge2_day_hour!D5*A4)</f>
+        <f>IF(_anaCharge2_day_hour!D5="","",_anaCharge2_day_hour!D5*B4)</f>
         <v/>
       </c>
       <c r="F4" s="4" t="str">
@@ -6170,15 +6006,19 @@
         <v/>
       </c>
       <c r="H4" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G5="","",_anaCharge2_day_hour!G5*A4)</f>
+        <v/>
+      </c>
+      <c r="I4" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I4" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G5="","",_anaCharge2_day_hour!G5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H5="","",_anaCharge2_day_hour!H5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="str">
         <f>IF(_tag1_day_all!N6="","",_tag1_day_all!N6)</f>
         <v/>
@@ -6196,7 +6036,7 @@
         <v/>
       </c>
       <c r="E5" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D6="","",_anaCharge2_day_hour!D6*A5)</f>
+        <f>IF(_anaCharge2_day_hour!D6="","",_anaCharge2_day_hour!D6*B5)</f>
         <v/>
       </c>
       <c r="F5" s="4" t="str">
@@ -6208,15 +6048,19 @@
         <v/>
       </c>
       <c r="H5" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G6="","",_anaCharge2_day_hour!G6*A5)</f>
+        <v/>
+      </c>
+      <c r="I5" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I5" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G6="","",_anaCharge2_day_hour!G6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H6="","",_anaCharge2_day_hour!H6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="str">
         <f>IF(_tag1_day_all!N7="","",_tag1_day_all!N7)</f>
         <v/>
@@ -6234,7 +6078,7 @@
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D7="","",_anaCharge2_day_hour!D7*A6)</f>
+        <f>IF(_anaCharge2_day_hour!D7="","",_anaCharge2_day_hour!D7*B6)</f>
         <v/>
       </c>
       <c r="F6" s="4" t="str">
@@ -6246,15 +6090,19 @@
         <v/>
       </c>
       <c r="H6" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G7="","",_anaCharge2_day_hour!G7*A6)</f>
+        <v/>
+      </c>
+      <c r="I6" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I6" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G7="","",_anaCharge2_day_hour!G7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H7="","",_anaCharge2_day_hour!H7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="str">
         <f>IF(_tag1_day_all!N8="","",_tag1_day_all!N8)</f>
         <v/>
@@ -6272,7 +6120,7 @@
         <v/>
       </c>
       <c r="E7" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D8="","",_anaCharge2_day_hour!D8*A7)</f>
+        <f>IF(_anaCharge2_day_hour!D8="","",_anaCharge2_day_hour!D8*B7)</f>
         <v/>
       </c>
       <c r="F7" s="4" t="str">
@@ -6284,15 +6132,19 @@
         <v/>
       </c>
       <c r="H7" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G8="","",_anaCharge2_day_hour!G8*A7)</f>
+        <v/>
+      </c>
+      <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I7" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G8="","",_anaCharge2_day_hour!G8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H8="","",_anaCharge2_day_hour!H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="str">
         <f>IF(_tag1_day_all!N9="","",_tag1_day_all!N9)</f>
         <v/>
@@ -6310,7 +6162,7 @@
         <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D9="","",_anaCharge2_day_hour!D9*A8)</f>
+        <f>IF(_anaCharge2_day_hour!D9="","",_anaCharge2_day_hour!D9*B8)</f>
         <v/>
       </c>
       <c r="F8" s="4" t="str">
@@ -6322,15 +6174,19 @@
         <v/>
       </c>
       <c r="H8" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G9="","",_anaCharge2_day_hour!G9*A8)</f>
+        <v/>
+      </c>
+      <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G9="","",_anaCharge2_day_hour!G9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H9="","",_anaCharge2_day_hour!H9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="str">
         <f>IF(_tag1_day_all!N10="","",_tag1_day_all!N10)</f>
         <v/>
@@ -6348,7 +6204,7 @@
         <v/>
       </c>
       <c r="E9" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D10="","",_anaCharge2_day_hour!D10*A9)</f>
+        <f>IF(_anaCharge2_day_hour!D10="","",_anaCharge2_day_hour!D10*B9)</f>
         <v/>
       </c>
       <c r="F9" s="4" t="str">
@@ -6360,15 +6216,19 @@
         <v/>
       </c>
       <c r="H9" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G10="","",_anaCharge2_day_hour!G10*A9)</f>
+        <v/>
+      </c>
+      <c r="I9" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G10="","",_anaCharge2_day_hour!G10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H10="","",_anaCharge2_day_hour!H10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="str">
         <f>IF(_tag1_day_all!N11="","",_tag1_day_all!N11)</f>
         <v/>
@@ -6386,7 +6246,7 @@
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D11="","",_anaCharge2_day_hour!D11*A10)</f>
+        <f>IF(_anaCharge2_day_hour!D11="","",_anaCharge2_day_hour!D11*B10)</f>
         <v/>
       </c>
       <c r="F10" s="4" t="str">
@@ -6398,15 +6258,19 @@
         <v/>
       </c>
       <c r="H10" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G11="","",_anaCharge2_day_hour!G11*A10)</f>
+        <v/>
+      </c>
+      <c r="I10" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I10" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G11="","",_anaCharge2_day_hour!G11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H11="","",_anaCharge2_day_hour!H11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="str">
         <f>IF(_tag1_day_all!N12="","",_tag1_day_all!N12)</f>
         <v/>
@@ -6424,7 +6288,7 @@
         <v/>
       </c>
       <c r="E11" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D12="","",_anaCharge2_day_hour!D12*A11)</f>
+        <f>IF(_anaCharge2_day_hour!D12="","",_anaCharge2_day_hour!D12*B11)</f>
         <v/>
       </c>
       <c r="F11" s="4" t="str">
@@ -6436,15 +6300,19 @@
         <v/>
       </c>
       <c r="H11" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G12="","",_anaCharge2_day_hour!G12*A11)</f>
+        <v/>
+      </c>
+      <c r="I11" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G12="","",_anaCharge2_day_hour!G12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H12="","",_anaCharge2_day_hour!H12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="str">
         <f>IF(_tag1_day_all!N13="","",_tag1_day_all!N13)</f>
         <v/>
@@ -6462,7 +6330,7 @@
         <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D13="","",_anaCharge2_day_hour!D13*A12)</f>
+        <f>IF(_anaCharge2_day_hour!D13="","",_anaCharge2_day_hour!D13*B12)</f>
         <v/>
       </c>
       <c r="F12" s="4" t="str">
@@ -6474,15 +6342,19 @@
         <v/>
       </c>
       <c r="H12" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G13="","",_anaCharge2_day_hour!G13*A12)</f>
+        <v/>
+      </c>
+      <c r="I12" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G13="","",_anaCharge2_day_hour!G13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H13="","",_anaCharge2_day_hour!H13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="str">
         <f>IF(_tag1_day_all!N14="","",_tag1_day_all!N14)</f>
         <v/>
@@ -6500,7 +6372,7 @@
         <v/>
       </c>
       <c r="E13" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D14="","",_anaCharge2_day_hour!D14*A13)</f>
+        <f>IF(_anaCharge2_day_hour!D14="","",_anaCharge2_day_hour!D14*B13)</f>
         <v/>
       </c>
       <c r="F13" s="4" t="str">
@@ -6512,15 +6384,19 @@
         <v/>
       </c>
       <c r="H13" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G14="","",_anaCharge2_day_hour!G14*A13)</f>
+        <v/>
+      </c>
+      <c r="I13" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I13" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G14="","",_anaCharge2_day_hour!G14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H14="","",_anaCharge2_day_hour!H14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="str">
         <f>IF(_tag1_day_all!N15="","",_tag1_day_all!N15)</f>
         <v/>
@@ -6538,7 +6414,7 @@
         <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D15="","",_anaCharge2_day_hour!D15*A14)</f>
+        <f>IF(_anaCharge2_day_hour!D15="","",_anaCharge2_day_hour!D15*B14)</f>
         <v/>
       </c>
       <c r="F14" s="4" t="str">
@@ -6550,15 +6426,19 @@
         <v/>
       </c>
       <c r="H14" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G15="","",_anaCharge2_day_hour!G15*A14)</f>
+        <v/>
+      </c>
+      <c r="I14" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G15="","",_anaCharge2_day_hour!G15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H15="","",_anaCharge2_day_hour!H15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="str">
         <f>IF(_tag1_day_all!N16="","",_tag1_day_all!N16)</f>
         <v/>
@@ -6576,7 +6456,7 @@
         <v/>
       </c>
       <c r="E15" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D16="","",_anaCharge2_day_hour!D16*A15)</f>
+        <f>IF(_anaCharge2_day_hour!D16="","",_anaCharge2_day_hour!D16*B15)</f>
         <v/>
       </c>
       <c r="F15" s="4" t="str">
@@ -6588,15 +6468,19 @@
         <v/>
       </c>
       <c r="H15" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G16="","",_anaCharge2_day_hour!G16*A15)</f>
+        <v/>
+      </c>
+      <c r="I15" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G16="","",_anaCharge2_day_hour!G16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H16="","",_anaCharge2_day_hour!H16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="str">
         <f>IF(_tag1_day_all!N17="","",_tag1_day_all!N17)</f>
         <v/>
@@ -6614,7 +6498,7 @@
         <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D17="","",_anaCharge2_day_hour!D17*A16)</f>
+        <f>IF(_anaCharge2_day_hour!D17="","",_anaCharge2_day_hour!D17*B16)</f>
         <v/>
       </c>
       <c r="F16" s="4" t="str">
@@ -6626,15 +6510,19 @@
         <v/>
       </c>
       <c r="H16" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G17="","",_anaCharge2_day_hour!G17*A16)</f>
+        <v/>
+      </c>
+      <c r="I16" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G17="","",_anaCharge2_day_hour!G17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H17="","",_anaCharge2_day_hour!H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="str">
         <f>IF(_tag1_day_all!N18="","",_tag1_day_all!N18)</f>
         <v/>
@@ -6652,7 +6540,7 @@
         <v/>
       </c>
       <c r="E17" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D18="","",_anaCharge2_day_hour!D18*A17)</f>
+        <f>IF(_anaCharge2_day_hour!D18="","",_anaCharge2_day_hour!D18*B17)</f>
         <v/>
       </c>
       <c r="F17" s="4" t="str">
@@ -6664,15 +6552,19 @@
         <v/>
       </c>
       <c r="H17" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G18="","",_anaCharge2_day_hour!G18*A17)</f>
+        <v/>
+      </c>
+      <c r="I17" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G18="","",_anaCharge2_day_hour!G18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H18="","",_anaCharge2_day_hour!H18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="str">
         <f>IF(_tag1_day_all!N19="","",_tag1_day_all!N19)</f>
         <v/>
@@ -6690,7 +6582,7 @@
         <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D19="","",_anaCharge2_day_hour!D19*A18)</f>
+        <f>IF(_anaCharge2_day_hour!D19="","",_anaCharge2_day_hour!D19*B18)</f>
         <v/>
       </c>
       <c r="F18" s="4" t="str">
@@ -6702,15 +6594,19 @@
         <v/>
       </c>
       <c r="H18" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G19="","",_anaCharge2_day_hour!G19*A18)</f>
+        <v/>
+      </c>
+      <c r="I18" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G19="","",_anaCharge2_day_hour!G19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H19="","",_anaCharge2_day_hour!H19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="str">
         <f>IF(_tag1_day_all!N20="","",_tag1_day_all!N20)</f>
         <v/>
@@ -6728,7 +6624,7 @@
         <v/>
       </c>
       <c r="E19" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D20="","",_anaCharge2_day_hour!D20*A19)</f>
+        <f>IF(_anaCharge2_day_hour!D20="","",_anaCharge2_day_hour!D20*B19)</f>
         <v/>
       </c>
       <c r="F19" s="4" t="str">
@@ -6740,15 +6636,19 @@
         <v/>
       </c>
       <c r="H19" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G20="","",_anaCharge2_day_hour!G20*A19)</f>
+        <v/>
+      </c>
+      <c r="I19" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G20="","",_anaCharge2_day_hour!G20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H20="","",_anaCharge2_day_hour!H20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="str">
         <f>IF(_tag1_day_all!N21="","",_tag1_day_all!N21)</f>
         <v/>
@@ -6766,7 +6666,7 @@
         <v/>
       </c>
       <c r="E20" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D21="","",_anaCharge2_day_hour!D21*A20)</f>
+        <f>IF(_anaCharge2_day_hour!D21="","",_anaCharge2_day_hour!D21*B20)</f>
         <v/>
       </c>
       <c r="F20" s="4" t="str">
@@ -6778,15 +6678,19 @@
         <v/>
       </c>
       <c r="H20" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G21="","",_anaCharge2_day_hour!G21*A20)</f>
+        <v/>
+      </c>
+      <c r="I20" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G21="","",_anaCharge2_day_hour!G21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H21="","",_anaCharge2_day_hour!H21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="str">
         <f>IF(_tag1_day_all!N22="","",_tag1_day_all!N22)</f>
         <v/>
@@ -6804,7 +6708,7 @@
         <v/>
       </c>
       <c r="E21" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D22="","",_anaCharge2_day_hour!D22*A21)</f>
+        <f>IF(_anaCharge2_day_hour!D22="","",_anaCharge2_day_hour!D22*B21)</f>
         <v/>
       </c>
       <c r="F21" s="4" t="str">
@@ -6816,15 +6720,19 @@
         <v/>
       </c>
       <c r="H21" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G22="","",_anaCharge2_day_hour!G22*A21)</f>
+        <v/>
+      </c>
+      <c r="I21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G22="","",_anaCharge2_day_hour!G22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H22="","",_anaCharge2_day_hour!H22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="3" t="str">
         <f>IF(_tag1_day_all!N23="","",_tag1_day_all!N23)</f>
         <v/>
@@ -6842,7 +6750,7 @@
         <v/>
       </c>
       <c r="E22" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D23="","",_anaCharge2_day_hour!D23*A22)</f>
+        <f>IF(_anaCharge2_day_hour!D23="","",_anaCharge2_day_hour!D23*B22)</f>
         <v/>
       </c>
       <c r="F22" s="4" t="str">
@@ -6854,15 +6762,19 @@
         <v/>
       </c>
       <c r="H22" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G23="","",_anaCharge2_day_hour!G23*A22)</f>
+        <v/>
+      </c>
+      <c r="I22" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G23="","",_anaCharge2_day_hour!G23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H23="","",_anaCharge2_day_hour!H23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="3" t="str">
         <f>IF(_tag1_day_all!N24="","",_tag1_day_all!N24)</f>
         <v/>
@@ -6880,7 +6792,7 @@
         <v/>
       </c>
       <c r="E23" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D24="","",_anaCharge2_day_hour!D24*A23)</f>
+        <f>IF(_anaCharge2_day_hour!D24="","",_anaCharge2_day_hour!D24*B23)</f>
         <v/>
       </c>
       <c r="F23" s="4" t="str">
@@ -6892,15 +6804,19 @@
         <v/>
       </c>
       <c r="H23" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G24="","",_anaCharge2_day_hour!G24*A23)</f>
+        <v/>
+      </c>
+      <c r="I23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G24="","",_anaCharge2_day_hour!G24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H24="","",_anaCharge2_day_hour!H24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="3" t="str">
         <f>IF(_tag1_day_all!N25="","",_tag1_day_all!N25)</f>
         <v/>
@@ -6918,7 +6834,7 @@
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D25="","",_anaCharge2_day_hour!D25*A24)</f>
+        <f>IF(_anaCharge2_day_hour!D25="","",_anaCharge2_day_hour!D25*B24)</f>
         <v/>
       </c>
       <c r="F24" s="4" t="str">
@@ -6930,16 +6846,21 @@
         <v/>
       </c>
       <c r="H24" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!G25="","",_anaCharge2_day_hour!G25*A24)</f>
+        <v/>
+      </c>
+      <c r="I24" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I24" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!G25="","",_anaCharge2_day_hour!G25)</f>
+      <c r="J24" s="4" t="str">
+        <f>IF(_anaCharge2_day_hour!H25="","",_anaCharge2_day_hour!H25)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/8高炉/上料日报.xlsx
+++ b/excel/finished/8高炉/上料日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="736" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="上料日报" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -578,19 +578,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,19 +599,19 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -623,28 +623,28 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,17 +652,17 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -672,6 +672,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,18 +693,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,6 +700,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -719,6 +713,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,9 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,25 +1008,25 @@
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="45"/>
-      <c r="B1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
       <c r="S1" s="45"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
       <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="51" t="s">
         <v>74</v>
       </c>
       <c r="N2" s="34" t="s">
@@ -1151,7 +1151,7 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
       <c r="R3" s="50"/>
-      <c r="S3" s="54"/>
+      <c r="S3" s="55"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="38">
@@ -1216,7 +1216,7 @@
       <c r="P4" s="44"/>
       <c r="Q4" s="44"/>
       <c r="R4" s="50"/>
-      <c r="S4" s="55"/>
+      <c r="S4" s="56"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="38">
@@ -1281,7 +1281,7 @@
       <c r="P5" s="44"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="50"/>
-      <c r="S5" s="55"/>
+      <c r="S5" s="56"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="38">
@@ -1346,7 +1346,7 @@
       <c r="P6" s="44"/>
       <c r="Q6" s="44"/>
       <c r="R6" s="50"/>
-      <c r="S6" s="55"/>
+      <c r="S6" s="56"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="38">
@@ -1411,7 +1411,7 @@
       <c r="P7" s="44"/>
       <c r="Q7" s="44"/>
       <c r="R7" s="50"/>
-      <c r="S7" s="55"/>
+      <c r="S7" s="56"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="38">
@@ -1476,7 +1476,7 @@
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="50"/>
-      <c r="S8" s="55"/>
+      <c r="S8" s="56"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="38">
@@ -1541,7 +1541,7 @@
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="50"/>
-      <c r="S9" s="55"/>
+      <c r="S9" s="56"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="38">
@@ -1606,7 +1606,7 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="50"/>
-      <c r="S10" s="55"/>
+      <c r="S10" s="56"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
@@ -1671,7 +1671,7 @@
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="50"/>
-      <c r="S11" s="55"/>
+      <c r="S11" s="56"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="38">
@@ -1736,7 +1736,7 @@
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="50"/>
-      <c r="S12" s="55"/>
+      <c r="S12" s="56"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="38">
@@ -1801,7 +1801,7 @@
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="55"/>
+      <c r="S13" s="56"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="38">
@@ -1866,7 +1866,7 @@
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="50"/>
-      <c r="S14" s="55"/>
+      <c r="S14" s="56"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="38">
@@ -1931,7 +1931,7 @@
       <c r="P15" s="44"/>
       <c r="Q15" s="44"/>
       <c r="R15" s="50"/>
-      <c r="S15" s="55"/>
+      <c r="S15" s="56"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="38">
@@ -1996,7 +1996,7 @@
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="50"/>
-      <c r="S16" s="55"/>
+      <c r="S16" s="56"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
@@ -2061,7 +2061,7 @@
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="50"/>
-      <c r="S17" s="55"/>
+      <c r="S17" s="56"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="38">
@@ -2126,7 +2126,7 @@
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="50"/>
-      <c r="S18" s="55"/>
+      <c r="S18" s="56"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="38">
@@ -2191,7 +2191,7 @@
       <c r="P19" s="44"/>
       <c r="Q19" s="44"/>
       <c r="R19" s="50"/>
-      <c r="S19" s="55"/>
+      <c r="S19" s="56"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="38">
@@ -2256,7 +2256,7 @@
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="50"/>
-      <c r="S20" s="55"/>
+      <c r="S20" s="56"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="38">
@@ -2321,7 +2321,7 @@
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
       <c r="R21" s="50"/>
-      <c r="S21" s="55"/>
+      <c r="S21" s="56"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
@@ -2386,7 +2386,7 @@
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="50"/>
-      <c r="S22" s="55"/>
+      <c r="S22" s="56"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="38">
@@ -2451,7 +2451,7 @@
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
       <c r="R23" s="50"/>
-      <c r="S23" s="55"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="38">
@@ -2516,7 +2516,7 @@
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="50"/>
-      <c r="S24" s="55"/>
+      <c r="S24" s="56"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="38">
@@ -2581,7 +2581,7 @@
       <c r="P25" s="44"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="50"/>
-      <c r="S25" s="55"/>
+      <c r="S25" s="56"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="38">
@@ -2646,7 +2646,7 @@
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="50"/>
-      <c r="S26" s="55"/>
+      <c r="S26" s="56"/>
     </row>
     <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
@@ -2711,7 +2711,7 @@
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
       <c r="R27" s="50"/>
-      <c r="S27" s="55"/>
+      <c r="S27" s="56"/>
     </row>
     <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
@@ -2776,7 +2776,7 @@
       <c r="P28" s="44"/>
       <c r="Q28" s="44"/>
       <c r="R28" s="50"/>
-      <c r="S28" s="55"/>
+      <c r="S28" s="56"/>
     </row>
     <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
@@ -2841,7 +2841,7 @@
       <c r="P29" s="44"/>
       <c r="Q29" s="44"/>
       <c r="R29" s="50"/>
-      <c r="S29" s="55"/>
+      <c r="S29" s="56"/>
     </row>
     <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
@@ -2906,7 +2906,7 @@
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
       <c r="R30" s="49"/>
-      <c r="S30" s="56"/>
+      <c r="S30" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2943,48 +2943,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="32"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60" t="s">
+      <c r="L2" s="61"/>
+      <c r="M2" s="61" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
@@ -3018,10 +3018,10 @@
       <c r="L3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="60"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="34" t="s">
         <v>35</v>
       </c>
@@ -3055,10 +3055,10 @@
       <c r="L4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="60"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="34" t="s">
         <v>39</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="L5" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="60"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="1:13" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
@@ -3175,7 +3175,7 @@
         <f>IF(_tag1_day_all!L2=0,"",_tag1_day_all!L2)</f>
         <v/>
       </c>
-      <c r="M7" s="64"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="38">
@@ -3225,7 +3225,7 @@
         <f>IF(_tag1_day_all!L3=0,"",_tag1_day_all!L3)</f>
         <v/>
       </c>
-      <c r="M8" s="65"/>
+      <c r="M8" s="63"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="38">
@@ -3275,7 +3275,7 @@
         <f>IF(_tag1_day_all!L4=0,"",_tag1_day_all!L4)</f>
         <v/>
       </c>
-      <c r="M9" s="65"/>
+      <c r="M9" s="63"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="38">
@@ -3325,7 +3325,7 @@
         <f>IF(_tag1_day_all!L5=0,"",_tag1_day_all!L5)</f>
         <v/>
       </c>
-      <c r="M10" s="65"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
@@ -3375,7 +3375,7 @@
         <f>IF(_tag1_day_all!L6=0,"",_tag1_day_all!L6)</f>
         <v/>
       </c>
-      <c r="M11" s="65"/>
+      <c r="M11" s="63"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="38">
@@ -3425,7 +3425,7 @@
         <f>IF(_tag1_day_all!L7=0,"",_tag1_day_all!L7)</f>
         <v/>
       </c>
-      <c r="M12" s="65"/>
+      <c r="M12" s="63"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="38">
@@ -3475,7 +3475,7 @@
         <f>IF(_tag1_day_all!L8=0,"",_tag1_day_all!L8)</f>
         <v/>
       </c>
-      <c r="M13" s="65"/>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="38">
@@ -3525,7 +3525,7 @@
         <f>IF(_tag1_day_all!L9=0,"",_tag1_day_all!L9)</f>
         <v/>
       </c>
-      <c r="M14" s="65"/>
+      <c r="M14" s="63"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="38">
@@ -3575,7 +3575,7 @@
         <f>IF(_tag1_day_all!L10=0,"",_tag1_day_all!L10)</f>
         <v/>
       </c>
-      <c r="M15" s="65"/>
+      <c r="M15" s="63"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="38">
@@ -3625,7 +3625,7 @@
         <f>IF(_tag1_day_all!L11=0,"",_tag1_day_all!L11)</f>
         <v/>
       </c>
-      <c r="M16" s="65"/>
+      <c r="M16" s="63"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
@@ -3675,7 +3675,7 @@
         <f>IF(_tag1_day_all!L12=0,"",_tag1_day_all!L12)</f>
         <v/>
       </c>
-      <c r="M17" s="65"/>
+      <c r="M17" s="63"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="38">
@@ -3725,7 +3725,7 @@
         <f>IF(_tag1_day_all!L13=0,"",_tag1_day_all!L13)</f>
         <v/>
       </c>
-      <c r="M18" s="65"/>
+      <c r="M18" s="63"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="38">
@@ -3775,7 +3775,7 @@
         <f>IF(_tag1_day_all!L14=0,"",_tag1_day_all!L14)</f>
         <v/>
       </c>
-      <c r="M19" s="65"/>
+      <c r="M19" s="63"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="38">
@@ -3825,7 +3825,7 @@
         <f>IF(_tag1_day_all!L15=0,"",_tag1_day_all!L15)</f>
         <v/>
       </c>
-      <c r="M20" s="65"/>
+      <c r="M20" s="63"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="38">
@@ -3875,7 +3875,7 @@
         <f>IF(_tag1_day_all!L16=0,"",_tag1_day_all!L16)</f>
         <v/>
       </c>
-      <c r="M21" s="65"/>
+      <c r="M21" s="63"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
@@ -3925,7 +3925,7 @@
         <f>IF(_tag1_day_all!L17=0,"",_tag1_day_all!L17)</f>
         <v/>
       </c>
-      <c r="M22" s="65"/>
+      <c r="M22" s="63"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="38">
@@ -3975,7 +3975,7 @@
         <f>IF(_tag1_day_all!L18=0,"",_tag1_day_all!L18)</f>
         <v/>
       </c>
-      <c r="M23" s="65"/>
+      <c r="M23" s="63"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="38">
@@ -4025,7 +4025,7 @@
         <f>IF(_tag1_day_all!L19=0,"",_tag1_day_all!L19)</f>
         <v/>
       </c>
-      <c r="M24" s="65"/>
+      <c r="M24" s="63"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="38">
@@ -4075,7 +4075,7 @@
         <f>IF(_tag1_day_all!L20=0,"",_tag1_day_all!L20)</f>
         <v/>
       </c>
-      <c r="M25" s="65"/>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="38">
@@ -4125,7 +4125,7 @@
         <f>IF(_tag1_day_all!L21=0,"",_tag1_day_all!L21)</f>
         <v/>
       </c>
-      <c r="M26" s="65"/>
+      <c r="M26" s="63"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="38">
@@ -4175,7 +4175,7 @@
         <f>IF(_tag1_day_all!L22=0,"",_tag1_day_all!L22)</f>
         <v/>
       </c>
-      <c r="M27" s="65"/>
+      <c r="M27" s="63"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="38">
@@ -4225,7 +4225,7 @@
         <f>IF(_tag1_day_all!L23=0,"",_tag1_day_all!L23)</f>
         <v/>
       </c>
-      <c r="M28" s="65"/>
+      <c r="M28" s="63"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="38">
@@ -4275,7 +4275,7 @@
         <f>IF(_tag1_day_all!L24=0,"",_tag1_day_all!L24)</f>
         <v/>
       </c>
-      <c r="M29" s="65"/>
+      <c r="M29" s="63"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="38">
@@ -4325,7 +4325,7 @@
         <f>IF(_tag1_day_all!L25=0,"",_tag1_day_all!L25)</f>
         <v/>
       </c>
-      <c r="M30" s="65"/>
+      <c r="M30" s="63"/>
     </row>
     <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
@@ -4375,7 +4375,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M31" s="65"/>
+      <c r="M31" s="63"/>
     </row>
     <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
@@ -4425,7 +4425,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M32" s="65"/>
+      <c r="M32" s="63"/>
     </row>
     <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
@@ -4475,7 +4475,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M33" s="65"/>
+      <c r="M33" s="63"/>
     </row>
     <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
@@ -4525,17 +4525,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M34" s="66"/>
+      <c r="M34" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="M7:M34"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
@@ -4563,14 +4563,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -4606,7 +4606,7 @@
       <c r="A4" s="15">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="16" t="str">
@@ -4618,13 +4618,13 @@
         <v/>
       </c>
       <c r="E4" s="17"/>
-      <c r="F4" s="64"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="16" t="str">
         <f>IF(_tag2_day_all!A3="","",_tag2_day_all!A3)</f>
         <v/>
@@ -4634,13 +4634,13 @@
         <v/>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="65"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>0.125</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="16" t="str">
         <f>IF(_tag2_day_all!A4="","",_tag2_day_all!A4)</f>
         <v/>
@@ -4650,13 +4650,13 @@
         <v/>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="65"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="16" t="str">
         <f>IF(_tag2_day_all!A5="","",_tag2_day_all!A5)</f>
         <v/>
@@ -4666,13 +4666,13 @@
         <v/>
       </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="65"/>
+      <c r="F7" s="63"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="16" t="str">
         <f>IF(_tag2_day_all!A6="","",_tag2_day_all!A6)</f>
         <v/>
@@ -4682,13 +4682,13 @@
         <v/>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="65"/>
+      <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>0.25</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="16" t="str">
         <f>IF(_tag2_day_all!A7="","",_tag2_day_all!A7)</f>
         <v/>
@@ -4698,13 +4698,13 @@
         <v/>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="65"/>
+      <c r="F9" s="63"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="16" t="str">
         <f>IF(_tag2_day_all!A8="","",_tag2_day_all!A8)</f>
         <v/>
@@ -4714,13 +4714,13 @@
         <v/>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="66"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B11" s="73"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="18" t="str">
         <f>IF(_tag2_day_all!A9="","",_tag2_day_all!A9)</f>
         <v/>
@@ -4738,7 +4738,7 @@
       <c r="A12" s="23">
         <v>0.375</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="24" t="str">
@@ -4750,13 +4750,13 @@
         <v/>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="75"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="16" t="str">
         <f>IF(_tag2_day_all!A11="","",_tag2_day_all!A11)</f>
         <v/>
@@ -4766,13 +4766,13 @@
         <v/>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="65"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="16" t="str">
         <f>IF(_tag2_day_all!A12="","",_tag2_day_all!A12)</f>
         <v/>
@@ -4782,13 +4782,13 @@
         <v/>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="65"/>
+      <c r="F14" s="63"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>0.5</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="16" t="str">
         <f>IF(_tag2_day_all!A13="","",_tag2_day_all!A13)</f>
         <v/>
@@ -4798,13 +4798,13 @@
         <v/>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="65"/>
+      <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="16" t="str">
         <f>IF(_tag2_day_all!A14="","",_tag2_day_all!A14)</f>
         <v/>
@@ -4814,13 +4814,13 @@
         <v/>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="16" t="str">
         <f>IF(_tag2_day_all!A15="","",_tag2_day_all!A15)</f>
         <v/>
@@ -4830,13 +4830,13 @@
         <v/>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="65"/>
+      <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>0.625</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="16" t="str">
         <f>IF(_tag2_day_all!A16="","",_tag2_day_all!A16)</f>
         <v/>
@@ -4846,13 +4846,13 @@
         <v/>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="66"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="18" t="str">
         <f>IF(_tag2_day_all!A17="","",_tag2_day_all!A17)</f>
         <v/>
@@ -4870,7 +4870,7 @@
       <c r="A20" s="23">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="75" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="24" t="str">
@@ -4882,13 +4882,13 @@
         <v/>
       </c>
       <c r="E20" s="26"/>
-      <c r="F20" s="76"/>
+      <c r="F20" s="77"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>0.75</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="16" t="str">
         <f>IF(_tag2_day_all!A19="","",_tag2_day_all!A19)</f>
         <v/>
@@ -4898,13 +4898,13 @@
         <v/>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="77"/>
+      <c r="F21" s="78"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="16" t="str">
         <f>IF(_tag2_day_all!A20="","",_tag2_day_all!A20)</f>
         <v/>
@@ -4914,13 +4914,13 @@
         <v/>
       </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="77"/>
+      <c r="F22" s="78"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B23" s="72"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="16" t="str">
         <f>IF(_tag2_day_all!A21="","",_tag2_day_all!A21)</f>
         <v/>
@@ -4930,13 +4930,13 @@
         <v/>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="77"/>
+      <c r="F23" s="78"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>0.875</v>
       </c>
-      <c r="B24" s="72"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="16" t="str">
         <f>IF(_tag2_day_all!A22="","",_tag2_day_all!A22)</f>
         <v/>
@@ -4946,13 +4946,13 @@
         <v/>
       </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="77"/>
+      <c r="F24" s="78"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B25" s="72"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="16" t="str">
         <f>IF(_tag2_day_all!A23="","",_tag2_day_all!A23)</f>
         <v/>
@@ -4962,13 +4962,13 @@
         <v/>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="77"/>
+      <c r="F25" s="78"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B26" s="72"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="16" t="str">
         <f>IF(_tag2_day_all!A24="","",_tag2_day_all!A24)</f>
         <v/>
@@ -4978,13 +4978,13 @@
         <v/>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="78"/>
+      <c r="F26" s="79"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>1</v>
       </c>
-      <c r="B27" s="73"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="20" t="str">
         <f>IF(_tag2_day_all!A25="","",_tag2_day_all!A25)</f>
         <v/>
@@ -4999,10 +4999,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="27" t="str">
         <f>IFERROR(AVERAGE(C4:C11),"")</f>
         <v/>
@@ -5015,10 +5015,10 @@
       <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="70"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="27" t="str">
         <f>IFERROR(AVERAGE(C12:C19),"")</f>
         <v/>
@@ -5031,10 +5031,10 @@
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="70"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="27" t="str">
         <f>IFERROR(AVERAGE(C20:C27),"")</f>
         <v/>
@@ -5239,8 +5239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5270,7 +5270,7 @@
         <v/>
       </c>
       <c r="E1" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D2="","",_anaCharge2_day_hour!D2)</f>
+        <f>IF(_anaCharge2_day_hour!D2="","",_anaCharge2_day_hour!D2*A1)</f>
         <v/>
       </c>
       <c r="F1" s="4" t="str">
@@ -5315,7 +5315,7 @@
         <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D3="","",_anaCharge2_day_hour!D3)</f>
+        <f>IF(_anaCharge2_day_hour!D3="","",_anaCharge2_day_hour!D3*A2)</f>
         <v/>
       </c>
       <c r="F2" s="4" t="str">
@@ -5357,7 +5357,7 @@
         <v/>
       </c>
       <c r="E3" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D4="","",_anaCharge2_day_hour!D4)</f>
+        <f>IF(_anaCharge2_day_hour!D4="","",_anaCharge2_day_hour!D4*A3)</f>
         <v/>
       </c>
       <c r="F3" s="4" t="str">
@@ -5399,7 +5399,7 @@
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D5="","",_anaCharge2_day_hour!D5)</f>
+        <f>IF(_anaCharge2_day_hour!D5="","",_anaCharge2_day_hour!D5*A4)</f>
         <v/>
       </c>
       <c r="F4" s="4" t="str">
@@ -5441,7 +5441,7 @@
         <v/>
       </c>
       <c r="E5" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D6="","",_anaCharge2_day_hour!D6)</f>
+        <f>IF(_anaCharge2_day_hour!D6="","",_anaCharge2_day_hour!D6*A5)</f>
         <v/>
       </c>
       <c r="F5" s="4" t="str">
@@ -5483,7 +5483,7 @@
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D7="","",_anaCharge2_day_hour!D7)</f>
+        <f>IF(_anaCharge2_day_hour!D7="","",_anaCharge2_day_hour!D7*A6)</f>
         <v/>
       </c>
       <c r="F6" s="4" t="str">
@@ -5525,7 +5525,7 @@
         <v/>
       </c>
       <c r="E7" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D8="","",_anaCharge2_day_hour!D8)</f>
+        <f>IF(_anaCharge2_day_hour!D8="","",_anaCharge2_day_hour!D8*A7)</f>
         <v/>
       </c>
       <c r="F7" s="4" t="str">
@@ -5567,7 +5567,7 @@
         <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D9="","",_anaCharge2_day_hour!D9)</f>
+        <f>IF(_anaCharge2_day_hour!D9="","",_anaCharge2_day_hour!D9*A8)</f>
         <v/>
       </c>
       <c r="F8" s="4" t="str">
@@ -5609,7 +5609,7 @@
         <v/>
       </c>
       <c r="E9" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D10="","",_anaCharge2_day_hour!D10)</f>
+        <f>IF(_anaCharge2_day_hour!D10="","",_anaCharge2_day_hour!D10*A9)</f>
         <v/>
       </c>
       <c r="F9" s="4" t="str">
@@ -5651,7 +5651,7 @@
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D11="","",_anaCharge2_day_hour!D11)</f>
+        <f>IF(_anaCharge2_day_hour!D11="","",_anaCharge2_day_hour!D11*A10)</f>
         <v/>
       </c>
       <c r="F10" s="4" t="str">
@@ -5693,7 +5693,7 @@
         <v/>
       </c>
       <c r="E11" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D12="","",_anaCharge2_day_hour!D12)</f>
+        <f>IF(_anaCharge2_day_hour!D12="","",_anaCharge2_day_hour!D12*A11)</f>
         <v/>
       </c>
       <c r="F11" s="4" t="str">
@@ -5735,7 +5735,7 @@
         <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D13="","",_anaCharge2_day_hour!D13)</f>
+        <f>IF(_anaCharge2_day_hour!D13="","",_anaCharge2_day_hour!D13*A12)</f>
         <v/>
       </c>
       <c r="F12" s="4" t="str">
@@ -5777,7 +5777,7 @@
         <v/>
       </c>
       <c r="E13" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D14="","",_anaCharge2_day_hour!D14)</f>
+        <f>IF(_anaCharge2_day_hour!D14="","",_anaCharge2_day_hour!D14*A13)</f>
         <v/>
       </c>
       <c r="F13" s="4" t="str">
@@ -5819,7 +5819,7 @@
         <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D15="","",_anaCharge2_day_hour!D15)</f>
+        <f>IF(_anaCharge2_day_hour!D15="","",_anaCharge2_day_hour!D15*A14)</f>
         <v/>
       </c>
       <c r="F14" s="4" t="str">
@@ -5861,7 +5861,7 @@
         <v/>
       </c>
       <c r="E15" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D16="","",_anaCharge2_day_hour!D16)</f>
+        <f>IF(_anaCharge2_day_hour!D16="","",_anaCharge2_day_hour!D16*A15)</f>
         <v/>
       </c>
       <c r="F15" s="4" t="str">
@@ -5903,7 +5903,7 @@
         <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D17="","",_anaCharge2_day_hour!D17)</f>
+        <f>IF(_anaCharge2_day_hour!D17="","",_anaCharge2_day_hour!D17*A16)</f>
         <v/>
       </c>
       <c r="F16" s="4" t="str">
@@ -5945,7 +5945,7 @@
         <v/>
       </c>
       <c r="E17" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D18="","",_anaCharge2_day_hour!D18)</f>
+        <f>IF(_anaCharge2_day_hour!D18="","",_anaCharge2_day_hour!D18*A17)</f>
         <v/>
       </c>
       <c r="F17" s="4" t="str">
@@ -5987,7 +5987,7 @@
         <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D19="","",_anaCharge2_day_hour!D19)</f>
+        <f>IF(_anaCharge2_day_hour!D19="","",_anaCharge2_day_hour!D19*A18)</f>
         <v/>
       </c>
       <c r="F18" s="4" t="str">
@@ -6029,7 +6029,7 @@
         <v/>
       </c>
       <c r="E19" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D20="","",_anaCharge2_day_hour!D20)</f>
+        <f>IF(_anaCharge2_day_hour!D20="","",_anaCharge2_day_hour!D20*A19)</f>
         <v/>
       </c>
       <c r="F19" s="4" t="str">
@@ -6071,7 +6071,7 @@
         <v/>
       </c>
       <c r="E20" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D21="","",_anaCharge2_day_hour!D21)</f>
+        <f>IF(_anaCharge2_day_hour!D21="","",_anaCharge2_day_hour!D21*A20)</f>
         <v/>
       </c>
       <c r="F20" s="4" t="str">
@@ -6113,7 +6113,7 @@
         <v/>
       </c>
       <c r="E21" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D22="","",_anaCharge2_day_hour!D22)</f>
+        <f>IF(_anaCharge2_day_hour!D22="","",_anaCharge2_day_hour!D22*A21)</f>
         <v/>
       </c>
       <c r="F21" s="4" t="str">
@@ -6155,7 +6155,7 @@
         <v/>
       </c>
       <c r="E22" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D23="","",_anaCharge2_day_hour!D23)</f>
+        <f>IF(_anaCharge2_day_hour!D23="","",_anaCharge2_day_hour!D23*A22)</f>
         <v/>
       </c>
       <c r="F22" s="4" t="str">
@@ -6197,7 +6197,7 @@
         <v/>
       </c>
       <c r="E23" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D24="","",_anaCharge2_day_hour!D24)</f>
+        <f>IF(_anaCharge2_day_hour!D24="","",_anaCharge2_day_hour!D24*A23)</f>
         <v/>
       </c>
       <c r="F23" s="4" t="str">
@@ -6239,7 +6239,7 @@
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <f>IF(_anaCharge2_day_hour!D25="","",_anaCharge2_day_hour!D25)</f>
+        <f>IF(_anaCharge2_day_hour!D25="","",_anaCharge2_day_hour!D25*A24)</f>
         <v/>
       </c>
       <c r="F24" s="4" t="str">
